--- a/timelines/chapter_2_babylon.xlsx
+++ b/timelines/chapter_2_babylon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\IdeaProjects\jerusalem-book\timelines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\IdeaProjects\jerusalem-book\src\timelines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04A2FD1-5313-41A0-A79B-D2D121BD0CFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45071FCE-1CBF-429A-953D-8049C1CFACB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Babylon" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="254">
   <si>
     <t>Shamash-shum-ukin</t>
   </si>
@@ -198,9 +199,6 @@
     <t>9 / Acc</t>
   </si>
   <si>
-    <t>29 / Acc</t>
-  </si>
-  <si>
     <t>Psamtik III</t>
   </si>
   <si>
@@ -784,6 +782,12 @@
   </si>
   <si>
     <t>Cambyses Y1</t>
+  </si>
+  <si>
+    <t>30 / Acc</t>
+  </si>
+  <si>
+    <t>1?</t>
   </si>
 </sst>
 </file>
@@ -2839,8 +2843,8 @@
   </sheetPr>
   <dimension ref="B1:W139"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R99" sqref="R99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2928,15 +2932,15 @@
     </row>
     <row r="4" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4" s="57" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G4" s="57"/>
       <c r="H4"/>
@@ -2946,15 +2950,15 @@
       <c r="M4" s="4"/>
       <c r="N4"/>
       <c r="O4" s="57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P4" s="57"/>
       <c r="S4" s="4"/>
       <c r="U4" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V4" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2984,13 +2988,13 @@
       </c>
       <c r="S5" s="4"/>
       <c r="U5" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V5" s="22"/>
     </row>
     <row r="6" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C6" s="23">
         <v>-653</v>
@@ -3013,7 +3017,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="U6" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V6" s="22"/>
     </row>
@@ -3040,13 +3044,13 @@
       </c>
       <c r="S7" s="4"/>
       <c r="U7" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V7" s="22"/>
     </row>
     <row r="8" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C8" s="23">
         <v>-651</v>
@@ -3069,13 +3073,13 @@
       </c>
       <c r="S8" s="4"/>
       <c r="U8" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V8" s="22"/>
     </row>
     <row r="9" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C9" s="23">
         <v>-650</v>
@@ -3098,13 +3102,13 @@
       </c>
       <c r="S9" s="4"/>
       <c r="U9" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V9" s="22"/>
     </row>
     <row r="10" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C10" s="23">
         <v>-649</v>
@@ -3127,13 +3131,13 @@
       </c>
       <c r="S10" s="4"/>
       <c r="U10" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V10" s="22"/>
     </row>
     <row r="11" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C11" s="23">
         <v>-648</v>
@@ -3146,7 +3150,7 @@
       </c>
       <c r="H11"/>
       <c r="I11" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J11"/>
       <c r="L11"/>
@@ -3158,7 +3162,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="U11" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V11" s="22"/>
     </row>
@@ -3177,7 +3181,7 @@
       </c>
       <c r="H12"/>
       <c r="I12" s="26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J12"/>
       <c r="L12"/>
@@ -3189,13 +3193,13 @@
       </c>
       <c r="S12" s="4"/>
       <c r="U12" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V12" s="22"/>
     </row>
     <row r="13" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C13" s="23">
         <v>-646</v>
@@ -3208,7 +3212,7 @@
       </c>
       <c r="H13"/>
       <c r="I13" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J13"/>
       <c r="L13"/>
@@ -3220,15 +3224,15 @@
       </c>
       <c r="S13" s="4"/>
       <c r="U13" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V13" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="62" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C14" s="23">
         <v>-645</v>
@@ -3251,7 +3255,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="U14" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V14" s="22"/>
     </row>
@@ -3278,7 +3282,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="U15" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V15" s="22"/>
     </row>
@@ -3305,7 +3309,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="U16" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V16" s="22"/>
     </row>
@@ -3332,7 +3336,7 @@
       </c>
       <c r="S17" s="4"/>
       <c r="U17" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V17" s="22"/>
     </row>
@@ -3359,7 +3363,7 @@
       </c>
       <c r="S18" s="4"/>
       <c r="U18" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V18" s="22"/>
     </row>
@@ -3386,7 +3390,7 @@
       </c>
       <c r="S19" s="4"/>
       <c r="U19" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V19" s="22"/>
     </row>
@@ -3413,7 +3417,7 @@
       </c>
       <c r="S20" s="4"/>
       <c r="U20" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V20" s="22"/>
     </row>
@@ -3440,7 +3444,7 @@
       </c>
       <c r="S21" s="4"/>
       <c r="U21" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V21" s="22"/>
     </row>
@@ -3467,7 +3471,7 @@
       </c>
       <c r="S22" s="4"/>
       <c r="U22" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V22" s="22"/>
     </row>
@@ -3494,13 +3498,13 @@
       </c>
       <c r="S23" s="4"/>
       <c r="U23" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V23" s="22"/>
     </row>
     <row r="24" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C24" s="23">
         <v>-635</v>
@@ -3523,7 +3527,7 @@
       </c>
       <c r="S24" s="4"/>
       <c r="U24" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V24" s="22"/>
     </row>
@@ -3550,7 +3554,7 @@
       </c>
       <c r="S25" s="4"/>
       <c r="U25" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V25" s="22"/>
     </row>
@@ -3577,7 +3581,7 @@
       </c>
       <c r="S26" s="4"/>
       <c r="U26" s="39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V26" s="22"/>
     </row>
@@ -3604,13 +3608,13 @@
       </c>
       <c r="S27" s="4"/>
       <c r="U27" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V27" s="22"/>
     </row>
     <row r="28" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C28" s="23">
         <v>-631</v>
@@ -3633,13 +3637,13 @@
       </c>
       <c r="S28" s="4"/>
       <c r="U28" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V28" s="22"/>
     </row>
     <row r="29" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C29" s="23">
         <v>-630</v>
@@ -3662,7 +3666,7 @@
       </c>
       <c r="S29" s="4"/>
       <c r="U29" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V29" s="22"/>
     </row>
@@ -3689,7 +3693,7 @@
       </c>
       <c r="S30" s="4"/>
       <c r="U30" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V30" s="22"/>
     </row>
@@ -3706,7 +3710,7 @@
       </c>
       <c r="H31"/>
       <c r="I31" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J31"/>
       <c r="L31"/>
@@ -3718,7 +3722,7 @@
       </c>
       <c r="S31" s="4"/>
       <c r="U31" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V31" s="22"/>
     </row>
@@ -3747,7 +3751,7 @@
       </c>
       <c r="S32" s="4"/>
       <c r="U32" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V32" s="22"/>
     </row>
@@ -3776,7 +3780,7 @@
       </c>
       <c r="S33" s="4"/>
       <c r="U33" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V33" s="22"/>
     </row>
@@ -3810,7 +3814,7 @@
       </c>
       <c r="S34" s="4"/>
       <c r="U34" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V34" s="22"/>
     </row>
@@ -3827,7 +3831,7 @@
       </c>
       <c r="H35"/>
       <c r="I35" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J35"/>
       <c r="K35" s="3" t="s">
@@ -3842,10 +3846,10 @@
       </c>
       <c r="S35" s="4"/>
       <c r="U35" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V35" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3873,7 +3877,7 @@
       </c>
       <c r="S36" s="4"/>
       <c r="U36" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V36" s="22"/>
     </row>
@@ -3890,7 +3894,7 @@
       </c>
       <c r="H37"/>
       <c r="I37" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J37"/>
       <c r="K37" s="3"/>
@@ -3903,7 +3907,7 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="U37" s="39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V37" s="22"/>
     </row>
@@ -3920,11 +3924,11 @@
       </c>
       <c r="H38"/>
       <c r="I38" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J38"/>
       <c r="K38" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L38"/>
       <c r="N38"/>
@@ -3935,7 +3939,7 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="U38" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V38" s="22"/>
     </row>
@@ -3963,7 +3967,7 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="U39" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V39" s="22"/>
     </row>
@@ -3991,13 +3995,13 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="U40" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V40" s="22"/>
     </row>
     <row r="41" spans="2:22" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C41" s="23">
         <v>-618</v>
@@ -4021,7 +4025,7 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="U41" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V41" s="22"/>
     </row>
@@ -4049,7 +4053,7 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="U42" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V42" s="22"/>
     </row>
@@ -4077,7 +4081,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="U43" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V43" s="22"/>
     </row>
@@ -4105,7 +4109,7 @@
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="U44" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V44" s="22"/>
     </row>
@@ -4133,13 +4137,13 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="U45" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V45" s="22"/>
     </row>
     <row r="46" spans="2:22" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C46" s="23">
         <v>-613</v>
@@ -4163,13 +4167,13 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="U46" s="39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V46" s="22"/>
     </row>
     <row r="47" spans="2:22" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C47" s="23">
         <v>-612</v>
@@ -4193,7 +4197,7 @@
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="U47" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V47" s="22"/>
     </row>
@@ -4223,7 +4227,7 @@
         <v>12</v>
       </c>
       <c r="U48" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V48" s="22"/>
     </row>
@@ -4251,7 +4255,7 @@
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="U49" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V49" s="22"/>
     </row>
@@ -4285,13 +4289,13 @@
         <v>17</v>
       </c>
       <c r="U50" s="39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V50" s="22"/>
     </row>
     <row r="51" spans="2:22" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C51" s="23">
         <v>-608</v>
@@ -4320,7 +4324,7 @@
       <c r="Q51" s="3"/>
       <c r="R51" s="40"/>
       <c r="U51" s="39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V51" s="22"/>
     </row>
@@ -4351,7 +4355,7 @@
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="U52" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V52" s="22"/>
     </row>
@@ -4368,7 +4372,7 @@
       </c>
       <c r="H53"/>
       <c r="I53" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J53"/>
       <c r="K53" s="3"/>
@@ -4384,7 +4388,7 @@
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="U53" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V53" s="22"/>
     </row>
@@ -4401,7 +4405,7 @@
       </c>
       <c r="H54"/>
       <c r="I54" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J54"/>
       <c r="K54" s="3"/>
@@ -4417,7 +4421,7 @@
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
       <c r="U54" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V54" s="22"/>
     </row>
@@ -4454,13 +4458,13 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="U55" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V55" s="22"/>
     </row>
     <row r="56" spans="2:22" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C56" s="23">
         <v>-603</v>
@@ -4489,10 +4493,10 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="U56" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V56" s="33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57" spans="2:22" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4508,7 +4512,7 @@
       </c>
       <c r="H57"/>
       <c r="I57" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J57"/>
       <c r="K57" s="45"/>
@@ -4524,7 +4528,7 @@
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
       <c r="U57" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V57" s="22"/>
     </row>
@@ -4541,7 +4545,7 @@
       </c>
       <c r="H58"/>
       <c r="I58" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J58"/>
       <c r="K58" s="3"/>
@@ -4557,7 +4561,7 @@
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
       <c r="U58" s="39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V58" s="22"/>
     </row>
@@ -4588,7 +4592,7 @@
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
       <c r="U59" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V59" s="22"/>
     </row>
@@ -4619,7 +4623,7 @@
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
       <c r="U60" s="39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V60" s="22"/>
     </row>
@@ -4650,7 +4654,7 @@
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
       <c r="U61" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V61" s="22"/>
     </row>
@@ -4681,7 +4685,7 @@
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
       <c r="U62" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V62" s="22"/>
     </row>
@@ -4712,7 +4716,7 @@
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
       <c r="U63" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V63" s="22"/>
     </row>
@@ -4743,7 +4747,7 @@
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
       <c r="U64" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V64" s="22"/>
     </row>
@@ -4778,7 +4782,7 @@
         <v>26</v>
       </c>
       <c r="U65" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V65" s="22"/>
     </row>
@@ -4811,7 +4815,7 @@
         <v>27</v>
       </c>
       <c r="U66" s="39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V66" s="22"/>
     </row>
@@ -4842,7 +4846,7 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="U67" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V67" s="22"/>
     </row>
@@ -4873,13 +4877,13 @@
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
       <c r="U68" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V68" s="22"/>
     </row>
     <row r="69" spans="2:22" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C69" s="23">
         <v>-590</v>
@@ -4906,7 +4910,7 @@
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
       <c r="U69" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V69" s="22"/>
     </row>
@@ -4937,7 +4941,7 @@
       <c r="Q70" s="3"/>
       <c r="R70" s="3"/>
       <c r="U70" s="39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V70" s="22"/>
     </row>
@@ -4970,7 +4974,7 @@
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
       <c r="U71" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V71" s="22"/>
     </row>
@@ -5001,7 +5005,7 @@
       <c r="Q72" s="3"/>
       <c r="R72" s="3"/>
       <c r="U72" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V72" s="22"/>
     </row>
@@ -5032,7 +5036,7 @@
       <c r="Q73" s="3"/>
       <c r="R73" s="3"/>
       <c r="U73" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="V73" s="22"/>
     </row>
@@ -5049,7 +5053,7 @@
       </c>
       <c r="H74"/>
       <c r="I74" s="41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J74" s="41"/>
       <c r="K74" s="41"/>
@@ -5065,7 +5069,7 @@
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
       <c r="U74" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V74" s="22"/>
     </row>
@@ -5096,7 +5100,7 @@
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
       <c r="U75" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V75" s="22"/>
     </row>
@@ -5127,7 +5131,7 @@
       <c r="Q76" s="3"/>
       <c r="R76" s="3"/>
       <c r="U76" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V76" s="22"/>
     </row>
@@ -5158,7 +5162,7 @@
       <c r="Q77" s="3"/>
       <c r="R77" s="3"/>
       <c r="U77" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V77" s="22"/>
     </row>
@@ -5189,7 +5193,7 @@
       <c r="Q78" s="3"/>
       <c r="R78" s="3"/>
       <c r="U78" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V78" s="22"/>
     </row>
@@ -5220,7 +5224,7 @@
       <c r="Q79" s="3"/>
       <c r="R79" s="3"/>
       <c r="U79" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V79" s="22"/>
     </row>
@@ -5251,7 +5255,7 @@
       <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
       <c r="U80" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V80" s="22"/>
     </row>
@@ -5282,7 +5286,7 @@
       <c r="Q81" s="3"/>
       <c r="R81" s="3"/>
       <c r="U81" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V81" s="22"/>
     </row>
@@ -5315,7 +5319,7 @@
         <v>30</v>
       </c>
       <c r="U82" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V82" s="22"/>
     </row>
@@ -5346,7 +5350,7 @@
       <c r="Q83" s="3"/>
       <c r="R83" s="3"/>
       <c r="U83" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="V83" s="22"/>
     </row>
@@ -5377,7 +5381,7 @@
       <c r="Q84" s="3"/>
       <c r="R84" s="3"/>
       <c r="U84" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V84" s="22"/>
     </row>
@@ -5406,7 +5410,7 @@
       </c>
       <c r="S85" s="4"/>
       <c r="U85" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V85" s="22"/>
     </row>
@@ -5435,13 +5439,13 @@
       </c>
       <c r="S86" s="4"/>
       <c r="U86" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V86" s="22"/>
     </row>
     <row r="87" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C87" s="23">
         <v>-572</v>
@@ -5466,7 +5470,7 @@
       </c>
       <c r="S87" s="4"/>
       <c r="U87" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V87" s="22"/>
     </row>
@@ -5495,7 +5499,7 @@
       </c>
       <c r="S88" s="4"/>
       <c r="U88" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V88" s="22"/>
     </row>
@@ -5524,7 +5528,7 @@
       </c>
       <c r="S89" s="4"/>
       <c r="U89" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V89" s="22"/>
     </row>
@@ -5555,7 +5559,7 @@
       </c>
       <c r="S90" s="4"/>
       <c r="U90" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V90" s="22"/>
     </row>
@@ -5584,13 +5588,13 @@
       </c>
       <c r="S91" s="4"/>
       <c r="U91" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V91" s="22"/>
     </row>
     <row r="92" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C92" s="23">
         <v>-567</v>
@@ -5618,7 +5622,7 @@
       </c>
       <c r="S92" s="4"/>
       <c r="U92" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="V92" s="22"/>
     </row>
@@ -5635,7 +5639,7 @@
       </c>
       <c r="H93"/>
       <c r="I93" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J93"/>
       <c r="L93"/>
@@ -5649,7 +5653,7 @@
       </c>
       <c r="S93" s="4"/>
       <c r="U93" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V93" s="22"/>
     </row>
@@ -5680,7 +5684,7 @@
       </c>
       <c r="S94" s="4"/>
       <c r="U94" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V94" s="22"/>
     </row>
@@ -5714,7 +5718,7 @@
       </c>
       <c r="S95" s="4"/>
       <c r="U95" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V95" s="22"/>
     </row>
@@ -5731,7 +5735,7 @@
       </c>
       <c r="H96"/>
       <c r="I96" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J96"/>
       <c r="L96"/>
@@ -5745,7 +5749,7 @@
       </c>
       <c r="S96" s="4"/>
       <c r="U96" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="V96" s="22"/>
     </row>
@@ -5774,7 +5778,7 @@
       </c>
       <c r="S97" s="4"/>
       <c r="U97" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V97" s="22"/>
     </row>
@@ -5793,11 +5797,11 @@
       </c>
       <c r="H98"/>
       <c r="I98" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J98"/>
       <c r="K98" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L98"/>
       <c r="M98" s="13">
@@ -5810,7 +5814,7 @@
       </c>
       <c r="S98" s="4"/>
       <c r="U98" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V98" s="22"/>
     </row>
@@ -5831,7 +5835,7 @@
       </c>
       <c r="J99"/>
       <c r="K99" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L99"/>
       <c r="M99" s="13">
@@ -5844,10 +5848,10 @@
       </c>
       <c r="S99" s="4"/>
       <c r="U99" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V99" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="100" spans="2:23" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5877,9 +5881,12 @@
       <c r="P100" s="11">
         <v>11</v>
       </c>
-      <c r="S100" s="4"/>
+      <c r="S100" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T100"/>
       <c r="U100" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="V100" s="22"/>
     </row>
@@ -5893,10 +5900,10 @@
         <v>1</v>
       </c>
       <c r="I101" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K101" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M101" s="13">
         <v>51</v>
@@ -5905,14 +5912,14 @@
       <c r="P101" s="11">
         <v>12</v>
       </c>
-      <c r="S101" s="4" t="s">
-        <v>45</v>
+      <c r="S101" s="14" t="s">
+        <v>253</v>
       </c>
       <c r="U101" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V101" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="102" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5931,11 +5938,11 @@
       <c r="P102" s="11">
         <v>13</v>
       </c>
-      <c r="S102" s="14">
-        <v>1</v>
+      <c r="S102" s="15">
+        <v>2</v>
       </c>
       <c r="U102" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5948,7 +5955,7 @@
         <v>3</v>
       </c>
       <c r="I103" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M103" s="13">
         <v>53</v>
@@ -5958,10 +5965,11 @@
         <v>14</v>
       </c>
       <c r="S103" s="15">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="T103" s="3"/>
       <c r="U103" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5990,10 +5998,11 @@
         <v>15</v>
       </c>
       <c r="S104" s="15">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="T104" s="3"/>
       <c r="U104" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6016,16 +6025,16 @@
         <v>16</v>
       </c>
       <c r="S105" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U105" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V105" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="W105" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="106" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6038,17 +6047,17 @@
         <v>2</v>
       </c>
       <c r="I106" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O106" s="47"/>
       <c r="P106" s="11">
         <v>17</v>
       </c>
       <c r="S106" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U106" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6065,10 +6074,11 @@
         <v>18</v>
       </c>
       <c r="S107" s="15">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="T107" s="3"/>
       <c r="U107" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6081,20 +6091,21 @@
         <v>4</v>
       </c>
       <c r="I108" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K108" s="56" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O108" s="47"/>
       <c r="P108" s="11">
         <v>19</v>
       </c>
       <c r="S108" s="15">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="T108" s="3"/>
       <c r="U108" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6107,7 +6118,7 @@
         <v>5</v>
       </c>
       <c r="I109" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K109" s="56"/>
       <c r="O109" s="47"/>
@@ -6115,10 +6126,10 @@
         <v>20</v>
       </c>
       <c r="S109" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U109" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6131,7 +6142,7 @@
         <v>6</v>
       </c>
       <c r="I110" s="41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J110" s="41"/>
       <c r="K110" s="41"/>
@@ -6140,10 +6151,10 @@
         <v>21</v>
       </c>
       <c r="S110" s="15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U110" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6160,10 +6171,11 @@
         <v>22</v>
       </c>
       <c r="S111" s="15">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="T111" s="3"/>
       <c r="U111" s="39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6180,10 +6192,11 @@
         <v>23</v>
       </c>
       <c r="S112" s="15">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="T112" s="3"/>
       <c r="U112" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6200,10 +6213,10 @@
         <v>24</v>
       </c>
       <c r="S113" s="15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U113" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6220,10 +6233,10 @@
         <v>25</v>
       </c>
       <c r="S114" s="15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U114" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6243,10 +6256,11 @@
         <v>52</v>
       </c>
       <c r="S115" s="15">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="T115" s="3"/>
       <c r="U115" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6266,8 +6280,9 @@
       <c r="S116" s="15">
         <v>15</v>
       </c>
+      <c r="T116" s="3"/>
       <c r="U116" s="39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="117" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6284,10 +6299,10 @@
         <v>28</v>
       </c>
       <c r="S117" s="15">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U117" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="118" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6304,10 +6319,10 @@
         <v>29</v>
       </c>
       <c r="S118" s="15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U118" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="119" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6324,10 +6339,11 @@
         <v>30</v>
       </c>
       <c r="S119" s="15">
-        <v>18</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="T119" s="3"/>
       <c r="U119" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="120" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6340,17 +6356,18 @@
         <v>16</v>
       </c>
       <c r="I120" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O120" s="47"/>
       <c r="P120" s="11">
         <v>31</v>
       </c>
       <c r="S120" s="15">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="T120" s="3"/>
       <c r="U120" s="39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="121" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6365,20 +6382,20 @@
         <v>54</v>
       </c>
       <c r="I121" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K121" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O121" s="47"/>
       <c r="P121" s="11">
         <v>32</v>
       </c>
       <c r="S121" s="15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U121" s="39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="122" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6391,20 +6408,20 @@
         <v>1</v>
       </c>
       <c r="I122" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O122" s="47"/>
       <c r="P122" s="11">
         <v>33</v>
       </c>
       <c r="S122" s="15">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U122" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V122" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="123" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6417,17 +6434,18 @@
         <v>2</v>
       </c>
       <c r="I123" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O123" s="47"/>
       <c r="P123" s="11">
         <v>34</v>
       </c>
       <c r="S123" s="15">
-        <v>22</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="T123" s="3"/>
       <c r="U123" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="124" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6444,10 +6462,11 @@
         <v>35</v>
       </c>
       <c r="S124" s="15">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="T124" s="3"/>
       <c r="U124" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="125" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6465,10 +6484,10 @@
       </c>
       <c r="R125" s="17"/>
       <c r="S125" s="15">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U125" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="126" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6486,10 +6505,10 @@
       </c>
       <c r="R126" s="17"/>
       <c r="S126" s="15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U126" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="127" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6507,10 +6526,11 @@
       </c>
       <c r="R127" s="17"/>
       <c r="S127" s="15">
-        <v>26</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="T127" s="3"/>
       <c r="U127" s="39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="128" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6527,10 +6547,11 @@
         <v>39</v>
       </c>
       <c r="S128" s="15">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="T128" s="3"/>
       <c r="U128" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="129" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6546,11 +6567,11 @@
       <c r="P129" s="11">
         <v>40</v>
       </c>
-      <c r="S129" s="15">
-        <v>28</v>
+      <c r="S129" s="4">
+        <v>29</v>
       </c>
       <c r="U129" s="39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="130" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6565,10 +6586,10 @@
         <v>56</v>
       </c>
       <c r="I130" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K130" s="58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O130" s="47"/>
       <c r="P130" s="11">
@@ -6576,10 +6597,10 @@
       </c>
       <c r="R130" s="49"/>
       <c r="S130" s="15" t="s">
-        <v>57</v>
+        <v>252</v>
       </c>
       <c r="U130" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="131" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6592,7 +6613,7 @@
         <v>1</v>
       </c>
       <c r="I131" s="27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K131" s="58"/>
       <c r="O131" s="47"/>
@@ -6604,10 +6625,10 @@
         <v>1</v>
       </c>
       <c r="U131" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V131" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="132" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6627,7 +6648,7 @@
         <v>2</v>
       </c>
       <c r="U132" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="133" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6647,7 +6668,7 @@
         <v>3</v>
       </c>
       <c r="U133" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="134" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6660,17 +6681,17 @@
         <v>4</v>
       </c>
       <c r="N134" s="50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O134" s="51"/>
       <c r="P134" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S134" s="15">
         <v>4</v>
       </c>
       <c r="U134" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="135" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6683,7 +6704,7 @@
         <v>5</v>
       </c>
       <c r="I135" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J135" s="41"/>
       <c r="K135" s="41"/>
@@ -6691,13 +6712,13 @@
         <v>55</v>
       </c>
       <c r="P135" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S135" s="15">
         <v>5</v>
       </c>
       <c r="U135" s="39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="136" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6717,12 +6738,12 @@
         <v>6</v>
       </c>
       <c r="U136" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="137" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="59" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C137" s="23">
         <v>-522</v>
@@ -6739,7 +6760,7 @@
         <v>7</v>
       </c>
       <c r="U137" s="39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="138" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6759,7 +6780,7 @@
         <v>8</v>
       </c>
       <c r="U138" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="139" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/timelines/chapter_2_babylon.xlsx
+++ b/timelines/chapter_2_babylon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\IdeaProjects\jerusalem-book\src\timelines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45071FCE-1CBF-429A-953D-8049C1CFACB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA6356C-A226-437D-B2D8-D4BB317471F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Babylon" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,9 +42,6 @@
     <t>Uruk King list - 21 years of Kandalanu</t>
   </si>
   <si>
-    <t>Uruk King list - 1 year for Sin-shumu-lisir and Sin-sharra-ishkun</t>
-  </si>
-  <si>
     <t>Nabopolassar</t>
   </si>
   <si>
@@ -788,6 +784,9 @@
   </si>
   <si>
     <t>1?</t>
+  </si>
+  <si>
+    <t>Uruk King list - 1 year for Sin-shumu-lisir and Sinsharishkun</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1028,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1129,10 +1128,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1144,16 +1173,7 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1179,26 +1199,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2843,8 +2845,8 @@
   </sheetPr>
   <dimension ref="B1:W139"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R99" sqref="R99"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K156" sqref="K156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2932,33 +2934,33 @@
     </row>
     <row r="4" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
-      <c r="F4" s="57" t="s">
-        <v>194</v>
-      </c>
-      <c r="G4" s="57"/>
+      <c r="F4" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="41"/>
       <c r="H4"/>
       <c r="I4" s="24"/>
       <c r="J4"/>
       <c r="L4"/>
       <c r="M4" s="4"/>
       <c r="N4"/>
-      <c r="O4" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="P4" s="57"/>
+      <c r="O4" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="P4" s="41"/>
       <c r="S4" s="4"/>
       <c r="U4" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="V4" s="35" t="s">
-        <v>242</v>
+        <v>195</v>
+      </c>
+      <c r="V4" s="40" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2968,7 +2970,7 @@
       </c>
       <c r="D5"/>
       <c r="E5"/>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="52" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="10">
@@ -2980,7 +2982,7 @@
       <c r="L5"/>
       <c r="M5" s="4"/>
       <c r="N5"/>
-      <c r="O5" s="46" t="s">
+      <c r="O5" s="49" t="s">
         <v>1</v>
       </c>
       <c r="P5" s="11">
@@ -2988,20 +2990,20 @@
       </c>
       <c r="S5" s="4"/>
       <c r="U5" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V5" s="22"/>
     </row>
     <row r="6" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C6" s="23">
         <v>-653</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
-      <c r="F6" s="43"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="10">
         <v>14</v>
       </c>
@@ -3011,13 +3013,13 @@
       <c r="L6"/>
       <c r="M6" s="4"/>
       <c r="N6"/>
-      <c r="O6" s="47"/>
+      <c r="O6" s="50"/>
       <c r="P6" s="11">
         <v>11</v>
       </c>
       <c r="S6" s="4"/>
       <c r="U6" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V6" s="22"/>
     </row>
@@ -3028,7 +3030,7 @@
       </c>
       <c r="D7"/>
       <c r="E7"/>
-      <c r="F7" s="43"/>
+      <c r="F7" s="53"/>
       <c r="G7" s="10">
         <v>15</v>
       </c>
@@ -3038,26 +3040,26 @@
       <c r="L7"/>
       <c r="M7" s="4"/>
       <c r="N7"/>
-      <c r="O7" s="47"/>
+      <c r="O7" s="50"/>
       <c r="P7" s="11">
         <v>12</v>
       </c>
       <c r="S7" s="4"/>
       <c r="U7" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V7" s="22"/>
     </row>
     <row r="8" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C8" s="23">
         <v>-651</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
-      <c r="F8" s="43"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="10">
         <v>16</v>
       </c>
@@ -3067,26 +3069,26 @@
       <c r="L8"/>
       <c r="M8" s="4"/>
       <c r="N8"/>
-      <c r="O8" s="47"/>
+      <c r="O8" s="50"/>
       <c r="P8" s="11">
         <v>13</v>
       </c>
       <c r="S8" s="4"/>
       <c r="U8" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V8" s="22"/>
     </row>
     <row r="9" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C9" s="23">
         <v>-650</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
-      <c r="F9" s="43"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="10">
         <v>17</v>
       </c>
@@ -3096,26 +3098,26 @@
       <c r="L9"/>
       <c r="M9" s="4"/>
       <c r="N9"/>
-      <c r="O9" s="47"/>
+      <c r="O9" s="50"/>
       <c r="P9" s="11">
         <v>14</v>
       </c>
       <c r="S9" s="4"/>
       <c r="U9" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V9" s="22"/>
     </row>
     <row r="10" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C10" s="23">
         <v>-649</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
-      <c r="F10" s="43"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="10">
         <v>18</v>
       </c>
@@ -3125,44 +3127,44 @@
       <c r="L10"/>
       <c r="M10" s="4"/>
       <c r="N10"/>
-      <c r="O10" s="47"/>
+      <c r="O10" s="50"/>
       <c r="P10" s="11">
         <v>15</v>
       </c>
       <c r="S10" s="4"/>
       <c r="U10" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V10" s="22"/>
     </row>
     <row r="11" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C11" s="23">
         <v>-648</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
-      <c r="F11" s="44"/>
+      <c r="F11" s="54"/>
       <c r="G11" s="10">
         <v>19</v>
       </c>
       <c r="H11"/>
       <c r="I11" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J11"/>
       <c r="L11"/>
       <c r="M11" s="4"/>
       <c r="N11"/>
-      <c r="O11" s="47"/>
+      <c r="O11" s="50"/>
       <c r="P11" s="11">
         <v>16</v>
       </c>
       <c r="S11" s="4"/>
       <c r="U11" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V11" s="22"/>
     </row>
@@ -3173,7 +3175,7 @@
       </c>
       <c r="D12"/>
       <c r="E12"/>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="52" t="s">
         <v>2</v>
       </c>
       <c r="G12" s="10" t="s">
@@ -3181,65 +3183,65 @@
       </c>
       <c r="H12"/>
       <c r="I12" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J12"/>
       <c r="L12"/>
       <c r="M12" s="4"/>
       <c r="N12"/>
-      <c r="O12" s="47"/>
+      <c r="O12" s="50"/>
       <c r="P12" s="11">
         <v>17</v>
       </c>
       <c r="S12" s="4"/>
       <c r="U12" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V12" s="22"/>
     </row>
     <row r="13" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C13" s="23">
         <v>-646</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
-      <c r="F13" s="43"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="10">
         <v>1</v>
       </c>
       <c r="H13"/>
       <c r="I13" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J13"/>
       <c r="L13"/>
       <c r="M13" s="4"/>
       <c r="N13"/>
-      <c r="O13" s="47"/>
+      <c r="O13" s="50"/>
       <c r="P13" s="11">
         <v>18</v>
       </c>
       <c r="S13" s="4"/>
       <c r="U13" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V13" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="62" t="s">
-        <v>236</v>
+      <c r="B14" s="46" t="s">
+        <v>235</v>
       </c>
       <c r="C14" s="23">
         <v>-645</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
-      <c r="F14" s="43"/>
+      <c r="F14" s="53"/>
       <c r="G14" s="10">
         <v>2</v>
       </c>
@@ -3249,24 +3251,24 @@
       <c r="L14"/>
       <c r="M14" s="4"/>
       <c r="N14"/>
-      <c r="O14" s="47"/>
+      <c r="O14" s="50"/>
       <c r="P14" s="11">
         <v>19</v>
       </c>
       <c r="S14" s="4"/>
       <c r="U14" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V14" s="22"/>
     </row>
     <row r="15" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="62"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="23">
         <v>-644</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
-      <c r="F15" s="43"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="10">
         <v>3</v>
       </c>
@@ -3276,24 +3278,24 @@
       <c r="L15"/>
       <c r="M15" s="4"/>
       <c r="N15"/>
-      <c r="O15" s="47"/>
+      <c r="O15" s="50"/>
       <c r="P15" s="11">
         <v>20</v>
       </c>
       <c r="S15" s="4"/>
       <c r="U15" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V15" s="22"/>
     </row>
     <row r="16" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="62"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="23">
         <v>-643</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
-      <c r="F16" s="43"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="10">
         <v>4</v>
       </c>
@@ -3303,24 +3305,24 @@
       <c r="L16"/>
       <c r="M16" s="4"/>
       <c r="N16"/>
-      <c r="O16" s="47"/>
+      <c r="O16" s="50"/>
       <c r="P16" s="11">
         <v>21</v>
       </c>
       <c r="S16" s="4"/>
       <c r="U16" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V16" s="22"/>
     </row>
     <row r="17" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="62"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="23">
         <v>-642</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
-      <c r="F17" s="43"/>
+      <c r="F17" s="53"/>
       <c r="G17" s="10">
         <v>5</v>
       </c>
@@ -3330,24 +3332,24 @@
       <c r="L17"/>
       <c r="M17" s="4"/>
       <c r="N17"/>
-      <c r="O17" s="47"/>
+      <c r="O17" s="50"/>
       <c r="P17" s="11">
         <v>22</v>
       </c>
       <c r="S17" s="4"/>
       <c r="U17" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V17" s="22"/>
     </row>
     <row r="18" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="62"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="23">
         <v>-641</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
-      <c r="F18" s="43"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="10">
         <v>6</v>
       </c>
@@ -3357,24 +3359,24 @@
       <c r="L18"/>
       <c r="M18" s="4"/>
       <c r="N18"/>
-      <c r="O18" s="47"/>
+      <c r="O18" s="50"/>
       <c r="P18" s="11">
         <v>23</v>
       </c>
       <c r="S18" s="4"/>
       <c r="U18" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V18" s="22"/>
     </row>
     <row r="19" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="62"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="23">
         <v>-640</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
-      <c r="F19" s="43"/>
+      <c r="F19" s="53"/>
       <c r="G19" s="10">
         <v>7</v>
       </c>
@@ -3384,24 +3386,24 @@
       <c r="L19"/>
       <c r="M19" s="4"/>
       <c r="N19"/>
-      <c r="O19" s="47"/>
+      <c r="O19" s="50"/>
       <c r="P19" s="11">
         <v>24</v>
       </c>
       <c r="S19" s="4"/>
       <c r="U19" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V19" s="22"/>
     </row>
     <row r="20" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="62"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="23">
         <v>-639</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
-      <c r="F20" s="43"/>
+      <c r="F20" s="53"/>
       <c r="G20" s="10">
         <v>8</v>
       </c>
@@ -3411,24 +3413,24 @@
       <c r="L20"/>
       <c r="M20" s="4"/>
       <c r="N20"/>
-      <c r="O20" s="47"/>
+      <c r="O20" s="50"/>
       <c r="P20" s="11">
         <v>25</v>
       </c>
       <c r="S20" s="4"/>
       <c r="U20" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V20" s="22"/>
     </row>
     <row r="21" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="62"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="23">
         <v>-638</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
-      <c r="F21" s="43"/>
+      <c r="F21" s="53"/>
       <c r="G21" s="10">
         <v>9</v>
       </c>
@@ -3438,24 +3440,24 @@
       <c r="L21"/>
       <c r="M21" s="4"/>
       <c r="N21"/>
-      <c r="O21" s="47"/>
+      <c r="O21" s="50"/>
       <c r="P21" s="11">
         <v>26</v>
       </c>
       <c r="S21" s="4"/>
       <c r="U21" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V21" s="22"/>
     </row>
     <row r="22" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="62"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="23">
         <v>-637</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
-      <c r="F22" s="43"/>
+      <c r="F22" s="53"/>
       <c r="G22" s="10">
         <v>10</v>
       </c>
@@ -3465,24 +3467,24 @@
       <c r="L22"/>
       <c r="M22" s="4"/>
       <c r="N22"/>
-      <c r="O22" s="47"/>
+      <c r="O22" s="50"/>
       <c r="P22" s="11">
         <v>27</v>
       </c>
       <c r="S22" s="4"/>
       <c r="U22" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V22" s="22"/>
     </row>
     <row r="23" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="63"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="23">
         <v>-636</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
-      <c r="F23" s="43"/>
+      <c r="F23" s="53"/>
       <c r="G23" s="10">
         <v>11</v>
       </c>
@@ -3492,26 +3494,26 @@
       <c r="L23"/>
       <c r="M23" s="4"/>
       <c r="N23"/>
-      <c r="O23" s="47"/>
+      <c r="O23" s="50"/>
       <c r="P23" s="11">
         <v>28</v>
       </c>
       <c r="S23" s="4"/>
       <c r="U23" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V23" s="22"/>
     </row>
     <row r="24" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C24" s="23">
         <v>-635</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
-      <c r="F24" s="43"/>
+      <c r="F24" s="53"/>
       <c r="G24" s="10">
         <v>12</v>
       </c>
@@ -3521,13 +3523,13 @@
       <c r="L24"/>
       <c r="M24" s="4"/>
       <c r="N24"/>
-      <c r="O24" s="47"/>
+      <c r="O24" s="50"/>
       <c r="P24" s="11">
         <v>29</v>
       </c>
       <c r="S24" s="4"/>
       <c r="U24" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V24" s="22"/>
     </row>
@@ -3538,7 +3540,7 @@
       </c>
       <c r="D25"/>
       <c r="E25"/>
-      <c r="F25" s="43"/>
+      <c r="F25" s="53"/>
       <c r="G25" s="10">
         <v>13</v>
       </c>
@@ -3548,13 +3550,13 @@
       <c r="L25"/>
       <c r="M25" s="4"/>
       <c r="N25"/>
-      <c r="O25" s="47"/>
+      <c r="O25" s="50"/>
       <c r="P25" s="11">
         <v>30</v>
       </c>
       <c r="S25" s="4"/>
       <c r="U25" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V25" s="22"/>
     </row>
@@ -3565,7 +3567,7 @@
       </c>
       <c r="D26"/>
       <c r="E26"/>
-      <c r="F26" s="43"/>
+      <c r="F26" s="53"/>
       <c r="G26" s="10">
         <v>14</v>
       </c>
@@ -3575,13 +3577,13 @@
       <c r="L26"/>
       <c r="M26" s="4"/>
       <c r="N26"/>
-      <c r="O26" s="47"/>
+      <c r="O26" s="50"/>
       <c r="P26" s="11">
         <v>31</v>
       </c>
       <c r="S26" s="4"/>
       <c r="U26" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V26" s="22"/>
     </row>
@@ -3592,7 +3594,7 @@
       </c>
       <c r="D27"/>
       <c r="E27"/>
-      <c r="F27" s="43"/>
+      <c r="F27" s="53"/>
       <c r="G27" s="10">
         <v>15</v>
       </c>
@@ -3602,26 +3604,26 @@
       <c r="L27"/>
       <c r="M27" s="4"/>
       <c r="N27"/>
-      <c r="O27" s="47"/>
+      <c r="O27" s="50"/>
       <c r="P27" s="11">
         <v>32</v>
       </c>
       <c r="S27" s="4"/>
       <c r="U27" s="39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V27" s="22"/>
     </row>
     <row r="28" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C28" s="23">
         <v>-631</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
-      <c r="F28" s="43"/>
+      <c r="F28" s="53"/>
       <c r="G28" s="10">
         <v>16</v>
       </c>
@@ -3631,26 +3633,26 @@
       <c r="L28"/>
       <c r="M28" s="4"/>
       <c r="N28"/>
-      <c r="O28" s="47"/>
+      <c r="O28" s="50"/>
       <c r="P28" s="11">
         <v>33</v>
       </c>
       <c r="S28" s="4"/>
       <c r="U28" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V28" s="22"/>
     </row>
     <row r="29" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C29" s="23">
         <v>-630</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
-      <c r="F29" s="43"/>
+      <c r="F29" s="53"/>
       <c r="G29" s="10">
         <v>17</v>
       </c>
@@ -3660,13 +3662,13 @@
       <c r="L29"/>
       <c r="M29" s="4"/>
       <c r="N29"/>
-      <c r="O29" s="47"/>
+      <c r="O29" s="50"/>
       <c r="P29" s="11">
         <v>34</v>
       </c>
       <c r="S29" s="4"/>
       <c r="U29" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V29" s="22"/>
     </row>
@@ -3677,7 +3679,7 @@
       </c>
       <c r="D30"/>
       <c r="E30"/>
-      <c r="F30" s="43"/>
+      <c r="F30" s="53"/>
       <c r="G30" s="10">
         <v>18</v>
       </c>
@@ -3687,13 +3689,13 @@
       <c r="L30"/>
       <c r="M30" s="4"/>
       <c r="N30"/>
-      <c r="O30" s="47"/>
+      <c r="O30" s="50"/>
       <c r="P30" s="11">
         <v>35</v>
       </c>
       <c r="S30" s="4"/>
       <c r="U30" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V30" s="22"/>
     </row>
@@ -3704,25 +3706,25 @@
       </c>
       <c r="D31"/>
       <c r="E31"/>
-      <c r="F31" s="43"/>
+      <c r="F31" s="53"/>
       <c r="G31" s="10">
         <v>19</v>
       </c>
       <c r="H31"/>
       <c r="I31" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J31"/>
       <c r="L31"/>
       <c r="M31" s="4"/>
       <c r="N31"/>
-      <c r="O31" s="47"/>
+      <c r="O31" s="50"/>
       <c r="P31" s="11">
         <v>36</v>
       </c>
       <c r="S31" s="4"/>
       <c r="U31" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V31" s="22"/>
     </row>
@@ -3733,7 +3735,7 @@
       </c>
       <c r="D32"/>
       <c r="E32"/>
-      <c r="F32" s="43"/>
+      <c r="F32" s="53"/>
       <c r="G32" s="10">
         <v>20</v>
       </c>
@@ -3745,13 +3747,13 @@
       <c r="L32"/>
       <c r="M32" s="4"/>
       <c r="N32"/>
-      <c r="O32" s="47"/>
+      <c r="O32" s="50"/>
       <c r="P32" s="11">
         <v>37</v>
       </c>
       <c r="S32" s="4"/>
       <c r="U32" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V32" s="22"/>
     </row>
@@ -3762,25 +3764,25 @@
       </c>
       <c r="D33"/>
       <c r="E33"/>
-      <c r="F33" s="44"/>
+      <c r="F33" s="54"/>
       <c r="G33" s="10">
         <v>21</v>
       </c>
       <c r="H33"/>
       <c r="I33" s="28" t="s">
-        <v>5</v>
+        <v>253</v>
       </c>
       <c r="J33"/>
       <c r="L33"/>
       <c r="M33" s="4"/>
       <c r="N33"/>
-      <c r="O33" s="47"/>
+      <c r="O33" s="50"/>
       <c r="P33" s="11">
         <v>38</v>
       </c>
       <c r="S33" s="4"/>
       <c r="U33" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V33" s="22"/>
     </row>
@@ -3791,30 +3793,30 @@
       </c>
       <c r="D34"/>
       <c r="E34"/>
-      <c r="F34" s="42" t="s">
+      <c r="F34" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>6</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>7</v>
       </c>
       <c r="H34"/>
       <c r="I34" s="28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J34"/>
       <c r="K34" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L34"/>
       <c r="M34" s="4"/>
       <c r="N34"/>
-      <c r="O34" s="47"/>
+      <c r="O34" s="50"/>
       <c r="P34" s="11">
         <v>39</v>
       </c>
       <c r="S34" s="4"/>
       <c r="U34" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V34" s="22"/>
     </row>
@@ -3825,31 +3827,31 @@
       </c>
       <c r="D35"/>
       <c r="E35"/>
-      <c r="F35" s="43"/>
+      <c r="F35" s="53"/>
       <c r="G35" s="10">
         <v>1</v>
       </c>
       <c r="H35"/>
       <c r="I35" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J35"/>
       <c r="K35" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L35"/>
       <c r="M35" s="4"/>
       <c r="N35"/>
-      <c r="O35" s="47"/>
+      <c r="O35" s="50"/>
       <c r="P35" s="11">
         <v>40</v>
       </c>
       <c r="S35" s="4"/>
       <c r="U35" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V35" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3859,25 +3861,25 @@
       </c>
       <c r="D36"/>
       <c r="E36"/>
-      <c r="F36" s="43"/>
+      <c r="F36" s="53"/>
       <c r="G36" s="10">
         <v>2</v>
       </c>
       <c r="H36"/>
       <c r="I36" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J36"/>
       <c r="L36"/>
       <c r="M36" s="4"/>
       <c r="N36"/>
-      <c r="O36" s="47"/>
+      <c r="O36" s="50"/>
       <c r="P36" s="11">
         <v>41</v>
       </c>
       <c r="S36" s="4"/>
       <c r="U36" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V36" s="22"/>
     </row>
@@ -3888,26 +3890,26 @@
       </c>
       <c r="D37"/>
       <c r="E37"/>
-      <c r="F37" s="43"/>
+      <c r="F37" s="53"/>
       <c r="G37" s="10">
         <v>3</v>
       </c>
       <c r="H37"/>
       <c r="I37" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J37"/>
       <c r="K37" s="3"/>
       <c r="L37"/>
       <c r="N37"/>
-      <c r="O37" s="47"/>
+      <c r="O37" s="50"/>
       <c r="P37" s="11">
         <v>42</v>
       </c>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="U37" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V37" s="22"/>
     </row>
@@ -3918,28 +3920,28 @@
       </c>
       <c r="D38"/>
       <c r="E38"/>
-      <c r="F38" s="43"/>
+      <c r="F38" s="53"/>
       <c r="G38" s="10">
         <v>4</v>
       </c>
       <c r="H38"/>
       <c r="I38" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J38"/>
       <c r="K38" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L38"/>
       <c r="N38"/>
-      <c r="O38" s="47"/>
+      <c r="O38" s="50"/>
       <c r="P38" s="11">
         <v>43</v>
       </c>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="U38" s="39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V38" s="22"/>
     </row>
@@ -3950,7 +3952,7 @@
       </c>
       <c r="D39"/>
       <c r="E39"/>
-      <c r="F39" s="43"/>
+      <c r="F39" s="53"/>
       <c r="G39" s="10">
         <v>5</v>
       </c>
@@ -3960,14 +3962,14 @@
       <c r="K39" s="3"/>
       <c r="L39"/>
       <c r="N39"/>
-      <c r="O39" s="47"/>
+      <c r="O39" s="50"/>
       <c r="P39" s="11">
         <v>44</v>
       </c>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="U39" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V39" s="22"/>
     </row>
@@ -3978,7 +3980,7 @@
       </c>
       <c r="D40"/>
       <c r="E40"/>
-      <c r="F40" s="43"/>
+      <c r="F40" s="53"/>
       <c r="G40" s="10">
         <v>6</v>
       </c>
@@ -3988,27 +3990,27 @@
       <c r="K40" s="3"/>
       <c r="L40"/>
       <c r="N40"/>
-      <c r="O40" s="47"/>
+      <c r="O40" s="50"/>
       <c r="P40" s="11">
         <v>45</v>
       </c>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="U40" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V40" s="22"/>
     </row>
     <row r="41" spans="2:22" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C41" s="23">
         <v>-618</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
-      <c r="F41" s="43"/>
+      <c r="F41" s="53"/>
       <c r="G41" s="10">
         <v>7</v>
       </c>
@@ -4018,14 +4020,14 @@
       <c r="K41" s="3"/>
       <c r="L41"/>
       <c r="N41"/>
-      <c r="O41" s="47"/>
+      <c r="O41" s="50"/>
       <c r="P41" s="11">
         <v>46</v>
       </c>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="U41" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V41" s="22"/>
     </row>
@@ -4036,7 +4038,7 @@
       </c>
       <c r="D42"/>
       <c r="E42"/>
-      <c r="F42" s="43"/>
+      <c r="F42" s="53"/>
       <c r="G42" s="10">
         <v>8</v>
       </c>
@@ -4046,14 +4048,14 @@
       <c r="K42" s="3"/>
       <c r="L42"/>
       <c r="N42"/>
-      <c r="O42" s="47"/>
+      <c r="O42" s="50"/>
       <c r="P42" s="11">
         <v>47</v>
       </c>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="U42" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V42" s="22"/>
     </row>
@@ -4064,7 +4066,7 @@
       </c>
       <c r="D43"/>
       <c r="E43"/>
-      <c r="F43" s="43"/>
+      <c r="F43" s="53"/>
       <c r="G43" s="10">
         <v>9</v>
       </c>
@@ -4074,14 +4076,14 @@
       <c r="K43" s="3"/>
       <c r="L43"/>
       <c r="N43"/>
-      <c r="O43" s="47"/>
+      <c r="O43" s="50"/>
       <c r="P43" s="11">
         <v>48</v>
       </c>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="U43" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V43" s="22"/>
     </row>
@@ -4092,7 +4094,7 @@
       </c>
       <c r="D44"/>
       <c r="E44"/>
-      <c r="F44" s="43"/>
+      <c r="F44" s="53"/>
       <c r="G44" s="10">
         <v>10</v>
       </c>
@@ -4102,14 +4104,14 @@
       <c r="K44" s="3"/>
       <c r="L44"/>
       <c r="N44"/>
-      <c r="O44" s="47"/>
+      <c r="O44" s="50"/>
       <c r="P44" s="11">
         <v>49</v>
       </c>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="U44" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V44" s="22"/>
     </row>
@@ -4120,7 +4122,7 @@
       </c>
       <c r="D45"/>
       <c r="E45"/>
-      <c r="F45" s="43"/>
+      <c r="F45" s="53"/>
       <c r="G45" s="10">
         <v>11</v>
       </c>
@@ -4130,27 +4132,27 @@
       <c r="K45" s="3"/>
       <c r="L45"/>
       <c r="N45"/>
-      <c r="O45" s="47"/>
+      <c r="O45" s="50"/>
       <c r="P45" s="11">
         <v>50</v>
       </c>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="U45" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V45" s="22"/>
     </row>
     <row r="46" spans="2:22" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C46" s="23">
         <v>-613</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
-      <c r="F46" s="43"/>
+      <c r="F46" s="53"/>
       <c r="G46" s="10">
         <v>12</v>
       </c>
@@ -4160,27 +4162,27 @@
       <c r="K46" s="3"/>
       <c r="L46"/>
       <c r="N46"/>
-      <c r="O46" s="47"/>
+      <c r="O46" s="50"/>
       <c r="P46" s="11">
         <v>51</v>
       </c>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="U46" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V46" s="22"/>
     </row>
     <row r="47" spans="2:22" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="23">
         <v>-612</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
-      <c r="F47" s="43"/>
+      <c r="F47" s="53"/>
       <c r="G47" s="10">
         <v>13</v>
       </c>
@@ -4190,14 +4192,14 @@
       <c r="K47" s="3"/>
       <c r="L47"/>
       <c r="N47"/>
-      <c r="O47" s="47"/>
+      <c r="O47" s="50"/>
       <c r="P47" s="11">
         <v>52</v>
       </c>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="U47" s="39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V47" s="22"/>
     </row>
@@ -4208,7 +4210,7 @@
       </c>
       <c r="D48"/>
       <c r="E48"/>
-      <c r="F48" s="43"/>
+      <c r="F48" s="53"/>
       <c r="G48" s="10">
         <v>14</v>
       </c>
@@ -4218,16 +4220,16 @@
       <c r="K48" s="3"/>
       <c r="L48"/>
       <c r="N48"/>
-      <c r="O48" s="47"/>
+      <c r="O48" s="50"/>
       <c r="P48" s="11">
         <v>53</v>
       </c>
       <c r="Q48" s="3"/>
       <c r="R48" s="32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U48" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V48" s="22"/>
     </row>
@@ -4238,7 +4240,7 @@
       </c>
       <c r="D49"/>
       <c r="E49"/>
-      <c r="F49" s="43"/>
+      <c r="F49" s="53"/>
       <c r="G49" s="10">
         <v>15</v>
       </c>
@@ -4248,14 +4250,14 @@
       <c r="K49" s="3"/>
       <c r="L49"/>
       <c r="N49"/>
-      <c r="O49" s="48"/>
+      <c r="O49" s="51"/>
       <c r="P49" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="U49" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V49" s="22"/>
     </row>
@@ -4266,65 +4268,65 @@
       </c>
       <c r="D50"/>
       <c r="E50"/>
-      <c r="F50" s="43"/>
+      <c r="F50" s="53"/>
       <c r="G50" s="10">
         <v>16</v>
       </c>
       <c r="H50"/>
       <c r="I50" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J50"/>
       <c r="K50" s="3"/>
       <c r="L50"/>
       <c r="N50"/>
-      <c r="O50" s="46" t="s">
+      <c r="O50" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="P50" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="P50" s="11" t="s">
+      <c r="Q50" s="3"/>
+      <c r="R50" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="40" t="s">
-        <v>17</v>
-      </c>
       <c r="U50" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V50" s="22"/>
     </row>
     <row r="51" spans="2:22" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C51" s="23">
         <v>-608</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
-      <c r="F51" s="43"/>
+      <c r="F51" s="53"/>
       <c r="G51" s="10">
         <v>17</v>
       </c>
       <c r="H51"/>
-      <c r="I51" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
+      <c r="I51" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
       <c r="L51"/>
       <c r="M51" s="12">
         <v>1</v>
       </c>
       <c r="N51"/>
-      <c r="O51" s="47"/>
+      <c r="O51" s="50"/>
       <c r="P51" s="11">
         <v>2</v>
       </c>
       <c r="Q51" s="3"/>
-      <c r="R51" s="40"/>
+      <c r="R51" s="55"/>
       <c r="U51" s="39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V51" s="22"/>
     </row>
@@ -4335,7 +4337,7 @@
       </c>
       <c r="D52"/>
       <c r="E52"/>
-      <c r="F52" s="43"/>
+      <c r="F52" s="53"/>
       <c r="G52" s="10">
         <v>18</v>
       </c>
@@ -4348,14 +4350,14 @@
         <v>2</v>
       </c>
       <c r="N52"/>
-      <c r="O52" s="47"/>
+      <c r="O52" s="50"/>
       <c r="P52" s="11">
         <v>3</v>
       </c>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="U52" s="39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V52" s="22"/>
     </row>
@@ -4366,13 +4368,13 @@
       </c>
       <c r="D53"/>
       <c r="E53"/>
-      <c r="F53" s="43"/>
+      <c r="F53" s="53"/>
       <c r="G53" s="10">
         <v>19</v>
       </c>
       <c r="H53"/>
       <c r="I53" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J53"/>
       <c r="K53" s="3"/>
@@ -4381,14 +4383,14 @@
         <v>3</v>
       </c>
       <c r="N53"/>
-      <c r="O53" s="47"/>
+      <c r="O53" s="50"/>
       <c r="P53" s="11">
         <v>4</v>
       </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="U53" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V53" s="22"/>
     </row>
@@ -4399,13 +4401,13 @@
       </c>
       <c r="D54"/>
       <c r="E54"/>
-      <c r="F54" s="44"/>
+      <c r="F54" s="54"/>
       <c r="G54" s="10">
         <v>20</v>
       </c>
       <c r="H54"/>
       <c r="I54" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J54"/>
       <c r="K54" s="3"/>
@@ -4414,14 +4416,14 @@
         <v>4</v>
       </c>
       <c r="N54"/>
-      <c r="O54" s="47"/>
+      <c r="O54" s="50"/>
       <c r="P54" s="11">
         <v>5</v>
       </c>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
       <c r="U54" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V54" s="22"/>
     </row>
@@ -4432,120 +4434,120 @@
       </c>
       <c r="D55"/>
       <c r="E55"/>
-      <c r="F55" s="42" t="s">
+      <c r="F55" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="H55"/>
       <c r="I55" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55"/>
+      <c r="K55" s="64" t="s">
         <v>21</v>
-      </c>
-      <c r="J55"/>
-      <c r="K55" s="45" t="s">
-        <v>22</v>
       </c>
       <c r="L55"/>
       <c r="M55" s="13">
         <v>5</v>
       </c>
       <c r="N55"/>
-      <c r="O55" s="47"/>
+      <c r="O55" s="50"/>
       <c r="P55" s="11">
         <v>6</v>
       </c>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="U55" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V55" s="22"/>
     </row>
     <row r="56" spans="2:22" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="61" t="s">
-        <v>241</v>
+      <c r="B56" s="45" t="s">
+        <v>240</v>
       </c>
       <c r="C56" s="23">
         <v>-603</v>
       </c>
       <c r="D56"/>
       <c r="E56"/>
-      <c r="F56" s="43"/>
+      <c r="F56" s="53"/>
       <c r="G56" s="10">
         <v>1</v>
       </c>
       <c r="H56"/>
       <c r="I56" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J56"/>
-      <c r="K56" s="45"/>
+      <c r="K56" s="64"/>
       <c r="L56"/>
       <c r="M56" s="13">
         <v>6</v>
       </c>
       <c r="N56"/>
-      <c r="O56" s="47"/>
+      <c r="O56" s="50"/>
       <c r="P56" s="11">
         <v>7</v>
       </c>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="U56" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V56" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="2:22" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="62"/>
+      <c r="B57" s="46"/>
       <c r="C57" s="23">
         <v>-602</v>
       </c>
       <c r="D57"/>
       <c r="E57"/>
-      <c r="F57" s="43"/>
+      <c r="F57" s="53"/>
       <c r="G57" s="10">
         <v>2</v>
       </c>
       <c r="H57"/>
       <c r="I57" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J57"/>
-      <c r="K57" s="45"/>
+      <c r="K57" s="64"/>
       <c r="L57"/>
       <c r="M57" s="13">
         <v>7</v>
       </c>
       <c r="N57"/>
-      <c r="O57" s="47"/>
+      <c r="O57" s="50"/>
       <c r="P57" s="11">
         <v>8</v>
       </c>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
       <c r="U57" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V57" s="22"/>
     </row>
     <row r="58" spans="2:22" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="62"/>
+      <c r="B58" s="46"/>
       <c r="C58" s="23">
         <v>-601</v>
       </c>
       <c r="D58"/>
       <c r="E58"/>
-      <c r="F58" s="43"/>
+      <c r="F58" s="53"/>
       <c r="G58" s="10">
         <v>3</v>
       </c>
       <c r="H58"/>
       <c r="I58" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J58"/>
       <c r="K58" s="3"/>
@@ -4554,25 +4556,25 @@
         <v>8</v>
       </c>
       <c r="N58"/>
-      <c r="O58" s="47"/>
+      <c r="O58" s="50"/>
       <c r="P58" s="11">
         <v>9</v>
       </c>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
       <c r="U58" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V58" s="22"/>
     </row>
     <row r="59" spans="2:22" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="62"/>
+      <c r="B59" s="46"/>
       <c r="C59" s="23">
         <v>-600</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
-      <c r="F59" s="43"/>
+      <c r="F59" s="53"/>
       <c r="G59" s="10">
         <v>4</v>
       </c>
@@ -4585,25 +4587,25 @@
         <v>9</v>
       </c>
       <c r="N59"/>
-      <c r="O59" s="47"/>
+      <c r="O59" s="50"/>
       <c r="P59" s="11">
         <v>10</v>
       </c>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
       <c r="U59" s="39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V59" s="22"/>
     </row>
     <row r="60" spans="2:22" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="62"/>
+      <c r="B60" s="46"/>
       <c r="C60" s="23">
         <v>-599</v>
       </c>
       <c r="D60"/>
       <c r="E60"/>
-      <c r="F60" s="43"/>
+      <c r="F60" s="53"/>
       <c r="G60" s="10">
         <v>5</v>
       </c>
@@ -4616,25 +4618,25 @@
         <v>10</v>
       </c>
       <c r="N60"/>
-      <c r="O60" s="47"/>
+      <c r="O60" s="50"/>
       <c r="P60" s="11">
         <v>11</v>
       </c>
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
       <c r="U60" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V60" s="22"/>
     </row>
     <row r="61" spans="2:22" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="62"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="23">
         <v>-598</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
-      <c r="F61" s="43"/>
+      <c r="F61" s="53"/>
       <c r="G61" s="10">
         <v>6</v>
       </c>
@@ -4647,25 +4649,25 @@
         <v>11</v>
       </c>
       <c r="N61"/>
-      <c r="O61" s="47"/>
+      <c r="O61" s="50"/>
       <c r="P61" s="11">
         <v>12</v>
       </c>
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
       <c r="U61" s="39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V61" s="22"/>
     </row>
     <row r="62" spans="2:22" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="62"/>
+      <c r="B62" s="46"/>
       <c r="C62" s="23">
         <v>-597</v>
       </c>
       <c r="D62"/>
       <c r="E62"/>
-      <c r="F62" s="43"/>
+      <c r="F62" s="53"/>
       <c r="G62" s="10">
         <v>7</v>
       </c>
@@ -4678,25 +4680,25 @@
         <v>12</v>
       </c>
       <c r="N62"/>
-      <c r="O62" s="47"/>
+      <c r="O62" s="50"/>
       <c r="P62" s="11">
         <v>13</v>
       </c>
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
       <c r="U62" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V62" s="22"/>
     </row>
     <row r="63" spans="2:22" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="62"/>
+      <c r="B63" s="46"/>
       <c r="C63" s="23">
         <v>-596</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
-      <c r="F63" s="43"/>
+      <c r="F63" s="53"/>
       <c r="G63" s="10">
         <v>8</v>
       </c>
@@ -4709,25 +4711,25 @@
         <v>13</v>
       </c>
       <c r="N63"/>
-      <c r="O63" s="47"/>
+      <c r="O63" s="50"/>
       <c r="P63" s="11">
         <v>14</v>
       </c>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
       <c r="U63" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V63" s="22"/>
     </row>
     <row r="64" spans="2:22" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="62"/>
+      <c r="B64" s="46"/>
       <c r="C64" s="23">
         <v>-595</v>
       </c>
       <c r="D64"/>
       <c r="E64"/>
-      <c r="F64" s="43"/>
+      <c r="F64" s="53"/>
       <c r="G64" s="10">
         <v>9</v>
       </c>
@@ -4740,25 +4742,25 @@
         <v>14</v>
       </c>
       <c r="N64"/>
-      <c r="O64" s="48"/>
+      <c r="O64" s="51"/>
       <c r="P64" s="11">
         <v>15</v>
       </c>
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
       <c r="U64" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V64" s="22"/>
     </row>
     <row r="65" spans="2:22" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="62"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="23">
         <v>-594</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
-      <c r="F65" s="43"/>
+      <c r="F65" s="53"/>
       <c r="G65" s="10">
         <v>10</v>
       </c>
@@ -4771,29 +4773,29 @@
         <v>15</v>
       </c>
       <c r="N65"/>
-      <c r="O65" s="46" t="s">
+      <c r="O65" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="P65" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="P65" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="Q65" s="3"/>
       <c r="R65" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U65" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V65" s="22"/>
     </row>
     <row r="66" spans="2:22" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="62"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="23">
         <v>-593</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
-      <c r="F66" s="43"/>
+      <c r="F66" s="53"/>
       <c r="G66" s="10">
         <v>11</v>
       </c>
@@ -4806,27 +4808,27 @@
         <v>16</v>
       </c>
       <c r="N66"/>
-      <c r="O66" s="47"/>
+      <c r="O66" s="50"/>
       <c r="P66" s="11">
         <v>2</v>
       </c>
       <c r="Q66" s="3"/>
       <c r="R66" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U66" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V66" s="22"/>
     </row>
     <row r="67" spans="2:22" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="62"/>
+      <c r="B67" s="46"/>
       <c r="C67" s="23">
         <v>-592</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
-      <c r="F67" s="43"/>
+      <c r="F67" s="53"/>
       <c r="G67" s="10">
         <v>12</v>
       </c>
@@ -4839,25 +4841,25 @@
         <v>17</v>
       </c>
       <c r="N67"/>
-      <c r="O67" s="47"/>
+      <c r="O67" s="50"/>
       <c r="P67" s="11">
         <v>3</v>
       </c>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="U67" s="39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V67" s="22"/>
     </row>
     <row r="68" spans="2:22" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="63"/>
+      <c r="B68" s="47"/>
       <c r="C68" s="23">
         <v>-591</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
-      <c r="F68" s="43"/>
+      <c r="F68" s="53"/>
       <c r="G68" s="10">
         <v>13</v>
       </c>
@@ -4870,27 +4872,27 @@
         <v>18</v>
       </c>
       <c r="N68"/>
-      <c r="O68" s="47"/>
+      <c r="O68" s="50"/>
       <c r="P68" s="11">
         <v>4</v>
       </c>
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
       <c r="U68" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V68" s="22"/>
     </row>
     <row r="69" spans="2:22" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C69" s="23">
         <v>-590</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
-      <c r="F69" s="43"/>
+      <c r="F69" s="53"/>
       <c r="G69" s="10">
         <v>14</v>
       </c>
@@ -4903,14 +4905,14 @@
         <v>19</v>
       </c>
       <c r="N69"/>
-      <c r="O69" s="47"/>
+      <c r="O69" s="50"/>
       <c r="P69" s="11">
         <v>5</v>
       </c>
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
       <c r="U69" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V69" s="22"/>
     </row>
@@ -4921,7 +4923,7 @@
       </c>
       <c r="D70"/>
       <c r="E70"/>
-      <c r="F70" s="43"/>
+      <c r="F70" s="53"/>
       <c r="G70" s="10">
         <v>15</v>
       </c>
@@ -4934,14 +4936,14 @@
         <v>20</v>
       </c>
       <c r="N70"/>
-      <c r="O70" s="48"/>
+      <c r="O70" s="51"/>
       <c r="P70" s="11">
         <v>6</v>
       </c>
       <c r="Q70" s="3"/>
       <c r="R70" s="3"/>
       <c r="U70" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V70" s="22"/>
     </row>
@@ -4952,7 +4954,7 @@
       </c>
       <c r="D71"/>
       <c r="E71"/>
-      <c r="F71" s="43"/>
+      <c r="F71" s="53"/>
       <c r="G71" s="10">
         <v>16</v>
       </c>
@@ -4965,16 +4967,16 @@
         <v>21</v>
       </c>
       <c r="N71"/>
-      <c r="O71" s="46" t="s">
+      <c r="O71" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="P71" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="P71" s="11" t="s">
-        <v>29</v>
       </c>
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
       <c r="U71" s="39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V71" s="22"/>
     </row>
@@ -4985,7 +4987,7 @@
       </c>
       <c r="D72"/>
       <c r="E72"/>
-      <c r="F72" s="43"/>
+      <c r="F72" s="53"/>
       <c r="G72" s="10">
         <v>17</v>
       </c>
@@ -4998,14 +5000,14 @@
         <v>22</v>
       </c>
       <c r="N72"/>
-      <c r="O72" s="47"/>
+      <c r="O72" s="50"/>
       <c r="P72" s="11">
         <v>2</v>
       </c>
       <c r="Q72" s="3"/>
       <c r="R72" s="3"/>
       <c r="U72" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V72" s="22"/>
     </row>
@@ -5016,7 +5018,7 @@
       </c>
       <c r="D73"/>
       <c r="E73"/>
-      <c r="F73" s="43"/>
+      <c r="F73" s="53"/>
       <c r="G73" s="10">
         <v>18</v>
       </c>
@@ -5029,14 +5031,14 @@
         <v>23</v>
       </c>
       <c r="N73"/>
-      <c r="O73" s="47"/>
+      <c r="O73" s="50"/>
       <c r="P73" s="11">
         <v>3</v>
       </c>
       <c r="Q73" s="3"/>
       <c r="R73" s="3"/>
       <c r="U73" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V73" s="22"/>
     </row>
@@ -5047,29 +5049,29 @@
       </c>
       <c r="D74"/>
       <c r="E74"/>
-      <c r="F74" s="43"/>
+      <c r="F74" s="53"/>
       <c r="G74" s="10">
         <v>19</v>
       </c>
       <c r="H74"/>
-      <c r="I74" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="J74" s="41"/>
-      <c r="K74" s="41"/>
+      <c r="I74" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="J74" s="48"/>
+      <c r="K74" s="48"/>
       <c r="L74"/>
       <c r="M74" s="13">
         <v>24</v>
       </c>
       <c r="N74"/>
-      <c r="O74" s="47"/>
+      <c r="O74" s="50"/>
       <c r="P74" s="11">
         <v>4</v>
       </c>
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
       <c r="U74" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="V74" s="22"/>
     </row>
@@ -5080,7 +5082,7 @@
       </c>
       <c r="D75"/>
       <c r="E75"/>
-      <c r="F75" s="43"/>
+      <c r="F75" s="53"/>
       <c r="G75" s="10">
         <v>20</v>
       </c>
@@ -5093,14 +5095,14 @@
         <v>25</v>
       </c>
       <c r="N75"/>
-      <c r="O75" s="47"/>
+      <c r="O75" s="50"/>
       <c r="P75" s="11">
         <v>5</v>
       </c>
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
       <c r="U75" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V75" s="22"/>
     </row>
@@ -5111,7 +5113,7 @@
       </c>
       <c r="D76"/>
       <c r="E76"/>
-      <c r="F76" s="43"/>
+      <c r="F76" s="53"/>
       <c r="G76" s="10">
         <v>21</v>
       </c>
@@ -5124,14 +5126,14 @@
         <v>26</v>
       </c>
       <c r="N76"/>
-      <c r="O76" s="47"/>
+      <c r="O76" s="50"/>
       <c r="P76" s="11">
         <v>6</v>
       </c>
       <c r="Q76" s="3"/>
       <c r="R76" s="3"/>
       <c r="U76" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V76" s="22"/>
     </row>
@@ -5142,7 +5144,7 @@
       </c>
       <c r="D77"/>
       <c r="E77"/>
-      <c r="F77" s="43"/>
+      <c r="F77" s="53"/>
       <c r="G77" s="10">
         <v>22</v>
       </c>
@@ -5155,14 +5157,14 @@
         <v>27</v>
       </c>
       <c r="N77"/>
-      <c r="O77" s="47"/>
+      <c r="O77" s="50"/>
       <c r="P77" s="11">
         <v>7</v>
       </c>
       <c r="Q77" s="3"/>
       <c r="R77" s="3"/>
       <c r="U77" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V77" s="22"/>
     </row>
@@ -5173,7 +5175,7 @@
       </c>
       <c r="D78"/>
       <c r="E78"/>
-      <c r="F78" s="43"/>
+      <c r="F78" s="53"/>
       <c r="G78" s="10">
         <v>23</v>
       </c>
@@ -5186,14 +5188,14 @@
         <v>28</v>
       </c>
       <c r="N78"/>
-      <c r="O78" s="47"/>
+      <c r="O78" s="50"/>
       <c r="P78" s="11">
         <v>8</v>
       </c>
       <c r="Q78" s="3"/>
       <c r="R78" s="3"/>
       <c r="U78" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V78" s="22"/>
     </row>
@@ -5204,7 +5206,7 @@
       </c>
       <c r="D79"/>
       <c r="E79"/>
-      <c r="F79" s="43"/>
+      <c r="F79" s="53"/>
       <c r="G79" s="10">
         <v>24</v>
       </c>
@@ -5217,14 +5219,14 @@
         <v>29</v>
       </c>
       <c r="N79"/>
-      <c r="O79" s="47"/>
+      <c r="O79" s="50"/>
       <c r="P79" s="11">
         <v>9</v>
       </c>
       <c r="Q79" s="3"/>
       <c r="R79" s="3"/>
       <c r="U79" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V79" s="22"/>
     </row>
@@ -5235,7 +5237,7 @@
       </c>
       <c r="D80"/>
       <c r="E80"/>
-      <c r="F80" s="43"/>
+      <c r="F80" s="53"/>
       <c r="G80" s="10">
         <v>25</v>
       </c>
@@ -5248,14 +5250,14 @@
         <v>30</v>
       </c>
       <c r="N80"/>
-      <c r="O80" s="47"/>
+      <c r="O80" s="50"/>
       <c r="P80" s="11">
         <v>10</v>
       </c>
       <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
       <c r="U80" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V80" s="22"/>
     </row>
@@ -5266,7 +5268,7 @@
       </c>
       <c r="D81"/>
       <c r="E81"/>
-      <c r="F81" s="43"/>
+      <c r="F81" s="53"/>
       <c r="G81" s="10">
         <v>26</v>
       </c>
@@ -5279,14 +5281,14 @@
         <v>31</v>
       </c>
       <c r="N81"/>
-      <c r="O81" s="47"/>
+      <c r="O81" s="50"/>
       <c r="P81" s="11">
         <v>11</v>
       </c>
       <c r="Q81" s="3"/>
       <c r="R81" s="3"/>
       <c r="U81" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V81" s="22"/>
     </row>
@@ -5297,7 +5299,7 @@
       </c>
       <c r="D82"/>
       <c r="E82"/>
-      <c r="F82" s="43"/>
+      <c r="F82" s="53"/>
       <c r="G82" s="10">
         <v>27</v>
       </c>
@@ -5310,16 +5312,16 @@
         <v>32</v>
       </c>
       <c r="N82"/>
-      <c r="O82" s="47"/>
+      <c r="O82" s="50"/>
       <c r="P82" s="11">
         <v>12</v>
       </c>
       <c r="Q82" s="3"/>
       <c r="R82" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U82" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V82" s="22"/>
     </row>
@@ -5330,7 +5332,7 @@
       </c>
       <c r="D83"/>
       <c r="E83"/>
-      <c r="F83" s="43"/>
+      <c r="F83" s="53"/>
       <c r="G83" s="10">
         <v>28</v>
       </c>
@@ -5343,14 +5345,14 @@
         <v>33</v>
       </c>
       <c r="N83"/>
-      <c r="O83" s="47"/>
+      <c r="O83" s="50"/>
       <c r="P83" s="11">
         <v>13</v>
       </c>
       <c r="Q83" s="3"/>
       <c r="R83" s="3"/>
       <c r="U83" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V83" s="22"/>
     </row>
@@ -5361,7 +5363,7 @@
       </c>
       <c r="D84"/>
       <c r="E84"/>
-      <c r="F84" s="43"/>
+      <c r="F84" s="53"/>
       <c r="G84" s="10">
         <v>29</v>
       </c>
@@ -5374,14 +5376,14 @@
         <v>34</v>
       </c>
       <c r="N84"/>
-      <c r="O84" s="47"/>
+      <c r="O84" s="50"/>
       <c r="P84" s="11">
         <v>14</v>
       </c>
       <c r="Q84" s="3"/>
       <c r="R84" s="3"/>
       <c r="U84" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="V84" s="22"/>
     </row>
@@ -5392,7 +5394,7 @@
       </c>
       <c r="D85"/>
       <c r="E85"/>
-      <c r="F85" s="43"/>
+      <c r="F85" s="53"/>
       <c r="G85" s="10">
         <v>30</v>
       </c>
@@ -5404,13 +5406,13 @@
         <v>35</v>
       </c>
       <c r="N85"/>
-      <c r="O85" s="47"/>
+      <c r="O85" s="50"/>
       <c r="P85" s="11">
         <v>15</v>
       </c>
       <c r="S85" s="4"/>
       <c r="U85" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V85" s="22"/>
     </row>
@@ -5421,7 +5423,7 @@
       </c>
       <c r="D86"/>
       <c r="E86"/>
-      <c r="F86" s="43"/>
+      <c r="F86" s="53"/>
       <c r="G86" s="10">
         <v>31</v>
       </c>
@@ -5433,26 +5435,26 @@
         <v>36</v>
       </c>
       <c r="N86"/>
-      <c r="O86" s="47"/>
+      <c r="O86" s="50"/>
       <c r="P86" s="11">
         <v>16</v>
       </c>
       <c r="S86" s="4"/>
       <c r="U86" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V86" s="22"/>
     </row>
     <row r="87" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C87" s="23">
         <v>-572</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
-      <c r="F87" s="43"/>
+      <c r="F87" s="53"/>
       <c r="G87" s="10">
         <v>32</v>
       </c>
@@ -5464,13 +5466,13 @@
         <v>37</v>
       </c>
       <c r="N87"/>
-      <c r="O87" s="47"/>
+      <c r="O87" s="50"/>
       <c r="P87" s="11">
         <v>17</v>
       </c>
       <c r="S87" s="4"/>
       <c r="U87" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V87" s="22"/>
     </row>
@@ -5481,7 +5483,7 @@
       </c>
       <c r="D88"/>
       <c r="E88"/>
-      <c r="F88" s="43"/>
+      <c r="F88" s="53"/>
       <c r="G88" s="10">
         <v>33</v>
       </c>
@@ -5493,13 +5495,13 @@
         <v>38</v>
       </c>
       <c r="N88"/>
-      <c r="O88" s="47"/>
+      <c r="O88" s="50"/>
       <c r="P88" s="11">
         <v>18</v>
       </c>
       <c r="S88" s="4"/>
       <c r="U88" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V88" s="22"/>
     </row>
@@ -5510,7 +5512,7 @@
       </c>
       <c r="D89"/>
       <c r="E89"/>
-      <c r="F89" s="43"/>
+      <c r="F89" s="53"/>
       <c r="G89" s="10">
         <v>34</v>
       </c>
@@ -5522,13 +5524,13 @@
         <v>39</v>
       </c>
       <c r="N89"/>
-      <c r="O89" s="48"/>
+      <c r="O89" s="51"/>
       <c r="P89" s="11">
         <v>19</v>
       </c>
       <c r="S89" s="4"/>
       <c r="U89" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V89" s="22"/>
     </row>
@@ -5539,7 +5541,7 @@
       </c>
       <c r="D90"/>
       <c r="E90"/>
-      <c r="F90" s="43"/>
+      <c r="F90" s="53"/>
       <c r="G90" s="10">
         <v>35</v>
       </c>
@@ -5551,15 +5553,15 @@
         <v>40</v>
       </c>
       <c r="N90"/>
-      <c r="O90" s="46" t="s">
+      <c r="O90" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="P90" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="P90" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="S90" s="4"/>
       <c r="U90" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V90" s="22"/>
     </row>
@@ -5570,7 +5572,7 @@
       </c>
       <c r="D91"/>
       <c r="E91"/>
-      <c r="F91" s="43"/>
+      <c r="F91" s="53"/>
       <c r="G91" s="10">
         <v>36</v>
       </c>
@@ -5582,47 +5584,47 @@
         <v>41</v>
       </c>
       <c r="N91"/>
-      <c r="O91" s="47"/>
+      <c r="O91" s="50"/>
       <c r="P91" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S91" s="4"/>
       <c r="U91" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V91" s="22"/>
     </row>
     <row r="92" spans="2:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C92" s="23">
         <v>-567</v>
       </c>
       <c r="D92"/>
       <c r="E92"/>
-      <c r="F92" s="43"/>
+      <c r="F92" s="53"/>
       <c r="G92" s="10">
         <v>37</v>
       </c>
       <c r="H92"/>
-      <c r="I92" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="J92" s="41"/>
-      <c r="K92" s="41"/>
+      <c r="I92" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="J92" s="48"/>
+      <c r="K92" s="48"/>
       <c r="L92"/>
       <c r="M92" s="13">
         <v>42</v>
       </c>
       <c r="N92"/>
-      <c r="O92" s="47"/>
+      <c r="O92" s="50"/>
       <c r="P92" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S92" s="4"/>
       <c r="U92" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V92" s="22"/>
     </row>
@@ -5633,27 +5635,26 @@
       </c>
       <c r="D93"/>
       <c r="E93"/>
-      <c r="F93" s="43"/>
+      <c r="F93" s="53"/>
       <c r="G93" s="10">
         <v>38</v>
       </c>
       <c r="H93"/>
       <c r="I93" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="J93"/>
+        <v>208</v>
+      </c>
       <c r="L93"/>
       <c r="M93" s="13">
         <v>43</v>
       </c>
       <c r="N93"/>
-      <c r="O93" s="47"/>
+      <c r="O93" s="50"/>
       <c r="P93" s="11">
         <v>4</v>
       </c>
       <c r="S93" s="4"/>
       <c r="U93" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="V93" s="22"/>
     </row>
@@ -5664,27 +5665,26 @@
       </c>
       <c r="D94"/>
       <c r="E94"/>
-      <c r="F94" s="43"/>
+      <c r="F94" s="53"/>
       <c r="G94" s="10">
         <v>39</v>
       </c>
       <c r="H94"/>
       <c r="I94" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J94"/>
+        <v>35</v>
+      </c>
       <c r="L94"/>
       <c r="M94" s="13">
         <v>44</v>
       </c>
       <c r="N94"/>
-      <c r="O94" s="47"/>
+      <c r="O94" s="50"/>
       <c r="P94" s="11">
         <v>5</v>
       </c>
       <c r="S94" s="4"/>
       <c r="U94" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V94" s="22"/>
     </row>
@@ -5695,30 +5695,29 @@
       </c>
       <c r="D95"/>
       <c r="E95"/>
-      <c r="F95" s="43"/>
+      <c r="F95" s="53"/>
       <c r="G95" s="10">
         <v>40</v>
       </c>
       <c r="H95"/>
       <c r="I95" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="K95" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="J95"/>
-      <c r="K95" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="L95"/>
       <c r="M95" s="13">
         <v>45</v>
       </c>
       <c r="N95"/>
-      <c r="O95" s="47"/>
+      <c r="O95" s="50"/>
       <c r="P95" s="11">
         <v>6</v>
       </c>
       <c r="S95" s="4"/>
       <c r="U95" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V95" s="22"/>
     </row>
@@ -5729,27 +5728,26 @@
       </c>
       <c r="D96"/>
       <c r="E96"/>
-      <c r="F96" s="43"/>
+      <c r="F96" s="53"/>
       <c r="G96" s="10">
         <v>41</v>
       </c>
       <c r="H96"/>
       <c r="I96" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="J96"/>
+        <v>209</v>
+      </c>
       <c r="L96"/>
       <c r="M96" s="13">
         <v>46</v>
       </c>
       <c r="N96"/>
-      <c r="O96" s="47"/>
+      <c r="O96" s="50"/>
       <c r="P96" s="11">
         <v>7</v>
       </c>
       <c r="S96" s="4"/>
       <c r="U96" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V96" s="22"/>
     </row>
@@ -5760,25 +5758,24 @@
       </c>
       <c r="D97"/>
       <c r="E97"/>
-      <c r="F97" s="44"/>
+      <c r="F97" s="54"/>
       <c r="G97" s="10">
         <v>42</v>
       </c>
       <c r="H97"/>
       <c r="I97" s="24"/>
-      <c r="J97"/>
       <c r="L97"/>
       <c r="M97" s="13">
         <v>47</v>
       </c>
       <c r="N97"/>
-      <c r="O97" s="47"/>
+      <c r="O97" s="50"/>
       <c r="P97" s="11">
         <v>8</v>
       </c>
       <c r="S97" s="4"/>
       <c r="U97" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="V97" s="22"/>
     </row>
@@ -5788,33 +5785,32 @@
         <v>-561</v>
       </c>
       <c r="D98"/>
-      <c r="E98" s="52" t="s">
+      <c r="E98" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" s="60"/>
+      <c r="G98" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="F98" s="53"/>
-      <c r="G98" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="H98"/>
       <c r="I98" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="J98"/>
+        <v>210</v>
+      </c>
       <c r="K98" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L98"/>
       <c r="M98" s="13">
         <v>48</v>
       </c>
       <c r="N98"/>
-      <c r="O98" s="47"/>
+      <c r="O98" s="50"/>
       <c r="P98" s="11">
         <v>9</v>
       </c>
       <c r="S98" s="4"/>
       <c r="U98" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V98" s="22"/>
     </row>
@@ -5824,34 +5820,33 @@
         <v>-560</v>
       </c>
       <c r="D99"/>
-      <c r="E99" s="54"/>
-      <c r="F99" s="55"/>
+      <c r="E99" s="61"/>
+      <c r="F99" s="62"/>
       <c r="G99" s="10">
         <v>1</v>
       </c>
       <c r="H99"/>
       <c r="I99" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="J99"/>
+        <v>40</v>
+      </c>
       <c r="K99" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L99"/>
       <c r="M99" s="13">
         <v>49</v>
       </c>
       <c r="N99"/>
-      <c r="O99" s="47"/>
+      <c r="O99" s="50"/>
       <c r="P99" s="11">
         <v>10</v>
       </c>
       <c r="S99" s="4"/>
       <c r="U99" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V99" s="33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="100" spans="2:23" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5861,32 +5856,31 @@
       </c>
       <c r="D100"/>
       <c r="E100"/>
-      <c r="F100" s="42" t="s">
+      <c r="F100" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="G100" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="G100" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="H100"/>
       <c r="I100" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="J100"/>
+        <v>43</v>
+      </c>
       <c r="L100"/>
       <c r="M100" s="13">
         <v>50</v>
       </c>
       <c r="N100"/>
-      <c r="O100" s="47"/>
+      <c r="O100" s="50"/>
       <c r="P100" s="11">
         <v>11</v>
       </c>
       <c r="S100" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T100"/>
       <c r="U100" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V100" s="22"/>
     </row>
@@ -5895,31 +5889,32 @@
       <c r="C101" s="23">
         <v>-558</v>
       </c>
-      <c r="F101" s="43"/>
+      <c r="F101" s="53"/>
       <c r="G101" s="10">
         <v>1</v>
       </c>
       <c r="I101" s="27" t="s">
-        <v>212</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="J101" s="3"/>
       <c r="K101" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M101" s="13">
         <v>51</v>
       </c>
-      <c r="O101" s="47"/>
+      <c r="O101" s="50"/>
       <c r="P101" s="11">
         <v>12</v>
       </c>
       <c r="S101" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U101" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="V101" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="102" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5927,14 +5922,15 @@
       <c r="C102" s="23">
         <v>-557</v>
       </c>
-      <c r="F102" s="43"/>
+      <c r="F102" s="53"/>
       <c r="G102" s="10">
         <v>2</v>
       </c>
+      <c r="J102" s="3"/>
       <c r="M102" s="13">
         <v>52</v>
       </c>
-      <c r="O102" s="47"/>
+      <c r="O102" s="50"/>
       <c r="P102" s="11">
         <v>13</v>
       </c>
@@ -5942,7 +5938,7 @@
         <v>2</v>
       </c>
       <c r="U102" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5950,17 +5946,18 @@
       <c r="C103" s="23">
         <v>-556</v>
       </c>
-      <c r="F103" s="44"/>
+      <c r="F103" s="54"/>
       <c r="G103" s="10">
         <v>3</v>
       </c>
       <c r="I103" s="25" t="s">
-        <v>218</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="J103" s="3"/>
       <c r="M103" s="13">
         <v>53</v>
       </c>
-      <c r="O103" s="47"/>
+      <c r="O103" s="50"/>
       <c r="P103" s="11">
         <v>14</v>
       </c>
@@ -5969,7 +5966,7 @@
       </c>
       <c r="T103" s="3"/>
       <c r="U103" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5977,23 +5974,24 @@
       <c r="C104" s="23">
         <v>-555</v>
       </c>
-      <c r="E104" s="50" t="s">
+      <c r="E104" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="F104" s="58"/>
+      <c r="G104" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F104" s="51"/>
-      <c r="G104" s="10" t="s">
+      <c r="I104" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="I104" s="28" t="s">
+      <c r="J104" s="3"/>
+      <c r="K104" s="55" t="s">
         <v>48</v>
-      </c>
-      <c r="K104" s="40" t="s">
-        <v>49</v>
       </c>
       <c r="M104" s="16">
         <v>54</v>
       </c>
-      <c r="O104" s="47"/>
+      <c r="O104" s="50"/>
       <c r="P104" s="11">
         <v>15</v>
       </c>
@@ -6002,7 +6000,7 @@
       </c>
       <c r="T104" s="3"/>
       <c r="U104" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6010,17 +6008,18 @@
       <c r="C105" s="23">
         <v>-554</v>
       </c>
-      <c r="F105" s="42" t="s">
-        <v>50</v>
+      <c r="F105" s="52" t="s">
+        <v>49</v>
       </c>
       <c r="G105" s="10">
         <v>1</v>
       </c>
       <c r="I105" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="K105" s="40"/>
-      <c r="O105" s="47"/>
+        <v>50</v>
+      </c>
+      <c r="J105" s="3"/>
+      <c r="K105" s="55"/>
+      <c r="O105" s="50"/>
       <c r="P105" s="11">
         <v>16</v>
       </c>
@@ -6028,13 +6027,13 @@
         <v>5</v>
       </c>
       <c r="U105" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V105" s="33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="W105" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="106" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6042,14 +6041,15 @@
       <c r="C106" s="23">
         <v>-553</v>
       </c>
-      <c r="F106" s="43"/>
+      <c r="F106" s="53"/>
       <c r="G106" s="10">
         <v>2</v>
       </c>
       <c r="I106" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="O106" s="47"/>
+        <v>214</v>
+      </c>
+      <c r="J106" s="3"/>
+      <c r="O106" s="50"/>
       <c r="P106" s="11">
         <v>17</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>6</v>
       </c>
       <c r="U106" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6065,11 +6065,12 @@
       <c r="C107" s="23">
         <v>-552</v>
       </c>
-      <c r="F107" s="43"/>
+      <c r="F107" s="53"/>
       <c r="G107" s="10">
         <v>3</v>
       </c>
-      <c r="O107" s="47"/>
+      <c r="J107" s="3"/>
+      <c r="O107" s="50"/>
       <c r="P107" s="11">
         <v>18</v>
       </c>
@@ -6078,7 +6079,7 @@
       </c>
       <c r="T107" s="3"/>
       <c r="U107" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6086,17 +6087,18 @@
       <c r="C108" s="23">
         <v>-551</v>
       </c>
-      <c r="F108" s="43"/>
+      <c r="F108" s="53"/>
       <c r="G108" s="10">
         <v>4</v>
       </c>
       <c r="I108" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="K108" s="56" t="s">
-        <v>220</v>
-      </c>
-      <c r="O108" s="47"/>
+        <v>215</v>
+      </c>
+      <c r="J108" s="3"/>
+      <c r="K108" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="O108" s="50"/>
       <c r="P108" s="11">
         <v>19</v>
       </c>
@@ -6105,7 +6107,7 @@
       </c>
       <c r="T108" s="3"/>
       <c r="U108" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6113,15 +6115,16 @@
       <c r="C109" s="23">
         <v>-550</v>
       </c>
-      <c r="F109" s="43"/>
+      <c r="F109" s="53"/>
       <c r="G109" s="10">
         <v>5</v>
       </c>
       <c r="I109" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="K109" s="56"/>
-      <c r="O109" s="47"/>
+        <v>216</v>
+      </c>
+      <c r="J109" s="3"/>
+      <c r="K109" s="63"/>
+      <c r="O109" s="50"/>
       <c r="P109" s="11">
         <v>20</v>
       </c>
@@ -6129,7 +6132,7 @@
         <v>9</v>
       </c>
       <c r="U109" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6137,16 +6140,16 @@
       <c r="C110" s="23">
         <v>-549</v>
       </c>
-      <c r="F110" s="43"/>
+      <c r="F110" s="53"/>
       <c r="G110" s="10">
         <v>6</v>
       </c>
-      <c r="I110" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="J110" s="41"/>
-      <c r="K110" s="41"/>
-      <c r="O110" s="47"/>
+      <c r="I110" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="J110" s="48"/>
+      <c r="K110" s="48"/>
+      <c r="O110" s="50"/>
       <c r="P110" s="11">
         <v>21</v>
       </c>
@@ -6154,7 +6157,7 @@
         <v>10</v>
       </c>
       <c r="U110" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6162,11 +6165,12 @@
       <c r="C111" s="23">
         <v>-548</v>
       </c>
-      <c r="F111" s="43"/>
+      <c r="F111" s="53"/>
       <c r="G111" s="10">
         <v>7</v>
       </c>
-      <c r="O111" s="47"/>
+      <c r="J111" s="3"/>
+      <c r="O111" s="50"/>
       <c r="P111" s="11">
         <v>22</v>
       </c>
@@ -6175,7 +6179,7 @@
       </c>
       <c r="T111" s="3"/>
       <c r="U111" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6183,11 +6187,12 @@
       <c r="C112" s="23">
         <v>-547</v>
       </c>
-      <c r="F112" s="43"/>
+      <c r="F112" s="53"/>
       <c r="G112" s="10">
         <v>8</v>
       </c>
-      <c r="O112" s="47"/>
+      <c r="J112" s="3"/>
+      <c r="O112" s="50"/>
       <c r="P112" s="11">
         <v>23</v>
       </c>
@@ -6196,7 +6201,7 @@
       </c>
       <c r="T112" s="3"/>
       <c r="U112" s="39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6204,11 +6209,11 @@
       <c r="C113" s="23">
         <v>-546</v>
       </c>
-      <c r="F113" s="43"/>
+      <c r="F113" s="53"/>
       <c r="G113" s="10">
         <v>9</v>
       </c>
-      <c r="O113" s="47"/>
+      <c r="O113" s="50"/>
       <c r="P113" s="11">
         <v>24</v>
       </c>
@@ -6216,7 +6221,7 @@
         <v>13</v>
       </c>
       <c r="U113" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6224,11 +6229,11 @@
       <c r="C114" s="23">
         <v>-545</v>
       </c>
-      <c r="F114" s="43"/>
+      <c r="F114" s="53"/>
       <c r="G114" s="10">
         <v>10</v>
       </c>
-      <c r="O114" s="47"/>
+      <c r="O114" s="50"/>
       <c r="P114" s="11">
         <v>25</v>
       </c>
@@ -6236,7 +6241,7 @@
         <v>14</v>
       </c>
       <c r="U114" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6244,23 +6249,23 @@
       <c r="C115" s="23">
         <v>-544</v>
       </c>
-      <c r="F115" s="43"/>
+      <c r="F115" s="53"/>
       <c r="G115" s="10">
         <v>11</v>
       </c>
-      <c r="O115" s="47"/>
+      <c r="O115" s="50"/>
       <c r="P115" s="11">
         <v>26</v>
       </c>
-      <c r="R115" s="40" t="s">
-        <v>52</v>
+      <c r="R115" s="55" t="s">
+        <v>51</v>
       </c>
       <c r="S115" s="15">
         <v>15</v>
       </c>
       <c r="T115" s="3"/>
       <c r="U115" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="116" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6268,21 +6273,21 @@
       <c r="C116" s="23">
         <v>-543</v>
       </c>
-      <c r="F116" s="43"/>
+      <c r="F116" s="53"/>
       <c r="G116" s="10">
         <v>12</v>
       </c>
-      <c r="O116" s="47"/>
+      <c r="O116" s="50"/>
       <c r="P116" s="11">
         <v>27</v>
       </c>
-      <c r="R116" s="40"/>
+      <c r="R116" s="55"/>
       <c r="S116" s="15">
         <v>15</v>
       </c>
       <c r="T116" s="3"/>
       <c r="U116" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="117" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6290,11 +6295,11 @@
       <c r="C117" s="23">
         <v>-542</v>
       </c>
-      <c r="F117" s="43"/>
+      <c r="F117" s="53"/>
       <c r="G117" s="10">
         <v>13</v>
       </c>
-      <c r="O117" s="47"/>
+      <c r="O117" s="50"/>
       <c r="P117" s="11">
         <v>28</v>
       </c>
@@ -6302,7 +6307,7 @@
         <v>17</v>
       </c>
       <c r="U117" s="39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="118" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6310,11 +6315,11 @@
       <c r="C118" s="23">
         <v>-541</v>
       </c>
-      <c r="F118" s="43"/>
+      <c r="F118" s="53"/>
       <c r="G118" s="10">
         <v>14</v>
       </c>
-      <c r="O118" s="47"/>
+      <c r="O118" s="50"/>
       <c r="P118" s="11">
         <v>29</v>
       </c>
@@ -6322,7 +6327,7 @@
         <v>18</v>
       </c>
       <c r="U118" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="119" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6330,11 +6335,11 @@
       <c r="C119" s="23">
         <v>-540</v>
       </c>
-      <c r="F119" s="43"/>
+      <c r="F119" s="53"/>
       <c r="G119" s="10">
         <v>15</v>
       </c>
-      <c r="O119" s="47"/>
+      <c r="O119" s="50"/>
       <c r="P119" s="11">
         <v>30</v>
       </c>
@@ -6343,7 +6348,7 @@
       </c>
       <c r="T119" s="3"/>
       <c r="U119" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="120" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6351,14 +6356,14 @@
       <c r="C120" s="23">
         <v>-539</v>
       </c>
-      <c r="F120" s="44"/>
+      <c r="F120" s="54"/>
       <c r="G120" s="10">
         <v>16</v>
       </c>
       <c r="I120" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="O120" s="47"/>
+        <v>224</v>
+      </c>
+      <c r="O120" s="50"/>
       <c r="P120" s="11">
         <v>31</v>
       </c>
@@ -6367,7 +6372,7 @@
       </c>
       <c r="T120" s="3"/>
       <c r="U120" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="121" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6375,19 +6380,19 @@
       <c r="C121" s="23">
         <v>-538</v>
       </c>
-      <c r="F121" s="42" t="s">
+      <c r="F121" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="G121" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G121" s="10" t="s">
-        <v>54</v>
-      </c>
       <c r="I121" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K121" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="O121" s="47"/>
+        <v>226</v>
+      </c>
+      <c r="O121" s="50"/>
       <c r="P121" s="11">
         <v>32</v>
       </c>
@@ -6395,7 +6400,7 @@
         <v>21</v>
       </c>
       <c r="U121" s="39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="122" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6403,14 +6408,14 @@
       <c r="C122" s="23">
         <v>-537</v>
       </c>
-      <c r="F122" s="43"/>
+      <c r="F122" s="53"/>
       <c r="G122" s="10">
         <v>1</v>
       </c>
       <c r="I122" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="O122" s="47"/>
+        <v>225</v>
+      </c>
+      <c r="O122" s="50"/>
       <c r="P122" s="11">
         <v>33</v>
       </c>
@@ -6418,10 +6423,10 @@
         <v>22</v>
       </c>
       <c r="U122" s="39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V122" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="123" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6429,14 +6434,14 @@
       <c r="C123" s="23">
         <v>-536</v>
       </c>
-      <c r="F123" s="43"/>
+      <c r="F123" s="53"/>
       <c r="G123" s="10">
         <v>2</v>
       </c>
       <c r="I123" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="O123" s="47"/>
+        <v>222</v>
+      </c>
+      <c r="O123" s="50"/>
       <c r="P123" s="11">
         <v>34</v>
       </c>
@@ -6445,7 +6450,7 @@
       </c>
       <c r="T123" s="3"/>
       <c r="U123" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="124" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6453,11 +6458,11 @@
       <c r="C124" s="23">
         <v>-535</v>
       </c>
-      <c r="F124" s="43"/>
+      <c r="F124" s="53"/>
       <c r="G124" s="10">
         <v>3</v>
       </c>
-      <c r="O124" s="47"/>
+      <c r="O124" s="50"/>
       <c r="P124" s="11">
         <v>35</v>
       </c>
@@ -6466,7 +6471,7 @@
       </c>
       <c r="T124" s="3"/>
       <c r="U124" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="125" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6474,11 +6479,11 @@
       <c r="C125" s="23">
         <v>-534</v>
       </c>
-      <c r="F125" s="43"/>
+      <c r="F125" s="53"/>
       <c r="G125" s="10">
         <v>4</v>
       </c>
-      <c r="O125" s="47"/>
+      <c r="O125" s="50"/>
       <c r="P125" s="11">
         <v>36</v>
       </c>
@@ -6487,7 +6492,7 @@
         <v>25</v>
       </c>
       <c r="U125" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="126" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6495,11 +6500,11 @@
       <c r="C126" s="23">
         <v>-533</v>
       </c>
-      <c r="F126" s="43"/>
+      <c r="F126" s="53"/>
       <c r="G126" s="10">
         <v>5</v>
       </c>
-      <c r="O126" s="47"/>
+      <c r="O126" s="50"/>
       <c r="P126" s="11">
         <v>37</v>
       </c>
@@ -6508,7 +6513,7 @@
         <v>26</v>
       </c>
       <c r="U126" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="127" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6516,11 +6521,11 @@
       <c r="C127" s="23">
         <v>-532</v>
       </c>
-      <c r="F127" s="43"/>
+      <c r="F127" s="53"/>
       <c r="G127" s="10">
         <v>6</v>
       </c>
-      <c r="O127" s="47"/>
+      <c r="O127" s="50"/>
       <c r="P127" s="11">
         <v>38</v>
       </c>
@@ -6530,7 +6535,7 @@
       </c>
       <c r="T127" s="3"/>
       <c r="U127" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="128" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6538,11 +6543,11 @@
       <c r="C128" s="23">
         <v>-531</v>
       </c>
-      <c r="F128" s="43"/>
+      <c r="F128" s="53"/>
       <c r="G128" s="10">
         <v>7</v>
       </c>
-      <c r="O128" s="47"/>
+      <c r="O128" s="50"/>
       <c r="P128" s="11">
         <v>39</v>
       </c>
@@ -6551,7 +6556,7 @@
       </c>
       <c r="T128" s="3"/>
       <c r="U128" s="39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="129" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6559,11 +6564,11 @@
       <c r="C129" s="23">
         <v>-530</v>
       </c>
-      <c r="F129" s="44"/>
+      <c r="F129" s="54"/>
       <c r="G129" s="10">
         <v>8</v>
       </c>
-      <c r="O129" s="47"/>
+      <c r="O129" s="50"/>
       <c r="P129" s="11">
         <v>40</v>
       </c>
@@ -6571,7 +6576,7 @@
         <v>29</v>
       </c>
       <c r="U129" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="130" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6579,28 +6584,28 @@
       <c r="C130" s="23">
         <v>-529</v>
       </c>
-      <c r="F130" s="42" t="s">
+      <c r="F130" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="G130" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G130" s="10" t="s">
-        <v>56</v>
-      </c>
       <c r="I130" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="K130" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="O130" s="47"/>
+        <v>227</v>
+      </c>
+      <c r="K130" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="O130" s="50"/>
       <c r="P130" s="11">
         <v>41</v>
       </c>
-      <c r="R130" s="49"/>
+      <c r="R130" s="56"/>
       <c r="S130" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U130" s="39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="131" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6608,27 +6613,27 @@
       <c r="C131" s="23">
         <v>-528</v>
       </c>
-      <c r="F131" s="43"/>
+      <c r="F131" s="53"/>
       <c r="G131" s="10">
         <v>1</v>
       </c>
       <c r="I131" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="K131" s="58"/>
-      <c r="O131" s="47"/>
+        <v>228</v>
+      </c>
+      <c r="K131" s="42"/>
+      <c r="O131" s="50"/>
       <c r="P131" s="11">
         <v>42</v>
       </c>
-      <c r="R131" s="49"/>
+      <c r="R131" s="56"/>
       <c r="S131" s="15">
         <v>1</v>
       </c>
       <c r="U131" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V131" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="132" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6636,11 +6641,11 @@
       <c r="C132" s="23">
         <v>-527</v>
       </c>
-      <c r="F132" s="43"/>
+      <c r="F132" s="53"/>
       <c r="G132" s="10">
         <v>2</v>
       </c>
-      <c r="O132" s="47"/>
+      <c r="O132" s="50"/>
       <c r="P132" s="11">
         <v>43</v>
       </c>
@@ -6648,7 +6653,7 @@
         <v>2</v>
       </c>
       <c r="U132" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="133" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6656,11 +6661,11 @@
       <c r="C133" s="23">
         <v>-526</v>
       </c>
-      <c r="F133" s="43"/>
+      <c r="F133" s="53"/>
       <c r="G133" s="10">
         <v>3</v>
       </c>
-      <c r="O133" s="48"/>
+      <c r="O133" s="51"/>
       <c r="P133" s="11">
         <v>44</v>
       </c>
@@ -6668,7 +6673,7 @@
         <v>3</v>
       </c>
       <c r="U133" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="134" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6676,22 +6681,22 @@
       <c r="C134" s="23">
         <v>-525</v>
       </c>
-      <c r="F134" s="43"/>
+      <c r="F134" s="53"/>
       <c r="G134" s="10">
         <v>4</v>
       </c>
-      <c r="N134" s="50" t="s">
+      <c r="N134" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="O134" s="58"/>
+      <c r="P134" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="O134" s="51"/>
-      <c r="P134" s="11" t="s">
-        <v>58</v>
       </c>
       <c r="S134" s="15">
         <v>4</v>
       </c>
       <c r="U134" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="135" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6699,26 +6704,26 @@
       <c r="C135" s="23">
         <v>-524</v>
       </c>
-      <c r="F135" s="43"/>
+      <c r="F135" s="53"/>
       <c r="G135" s="10">
         <v>5</v>
       </c>
-      <c r="I135" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="J135" s="41"/>
-      <c r="K135" s="41"/>
-      <c r="O135" s="46" t="s">
-        <v>55</v>
+      <c r="I135" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="J135" s="48"/>
+      <c r="K135" s="48"/>
+      <c r="O135" s="49" t="s">
+        <v>54</v>
       </c>
       <c r="P135" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S135" s="15">
         <v>5</v>
       </c>
       <c r="U135" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="136" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6726,11 +6731,11 @@
       <c r="C136" s="23">
         <v>-523</v>
       </c>
-      <c r="F136" s="43"/>
+      <c r="F136" s="53"/>
       <c r="G136" s="10">
         <v>6</v>
       </c>
-      <c r="O136" s="47"/>
+      <c r="O136" s="50"/>
       <c r="P136" s="18">
         <v>6</v>
       </c>
@@ -6738,21 +6743,21 @@
         <v>6</v>
       </c>
       <c r="U136" s="39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="137" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="59" t="s">
-        <v>238</v>
+      <c r="B137" s="43" t="s">
+        <v>237</v>
       </c>
       <c r="C137" s="23">
         <v>-522</v>
       </c>
-      <c r="F137" s="43"/>
+      <c r="F137" s="53"/>
       <c r="G137" s="10">
         <v>7</v>
       </c>
-      <c r="O137" s="47"/>
+      <c r="O137" s="50"/>
       <c r="P137" s="18">
         <v>7</v>
       </c>
@@ -6760,19 +6765,19 @@
         <v>7</v>
       </c>
       <c r="U137" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="138" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="60"/>
+      <c r="B138" s="44"/>
       <c r="C138" s="23">
         <v>-521</v>
       </c>
-      <c r="F138" s="44"/>
+      <c r="F138" s="54"/>
       <c r="G138" s="19">
         <v>8</v>
       </c>
-      <c r="O138" s="48"/>
+      <c r="O138" s="51"/>
       <c r="P138" s="20">
         <v>8</v>
       </c>
@@ -6780,7 +6785,7 @@
         <v>8</v>
       </c>
       <c r="U138" s="39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="139" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6788,20 +6793,11 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="K130:K131"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="B56:B68"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="I110:K110"/>
-    <mergeCell ref="O71:O89"/>
-    <mergeCell ref="I74:K74"/>
-    <mergeCell ref="F5:F11"/>
-    <mergeCell ref="O5:O49"/>
-    <mergeCell ref="F12:F33"/>
-    <mergeCell ref="F34:F54"/>
-    <mergeCell ref="O50:O64"/>
+    <mergeCell ref="R50:R51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="F55:F97"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="O65:O70"/>
     <mergeCell ref="R115:R116"/>
     <mergeCell ref="F121:F129"/>
     <mergeCell ref="F130:F138"/>
@@ -6817,86 +6813,95 @@
     <mergeCell ref="K104:K105"/>
     <mergeCell ref="F105:F120"/>
     <mergeCell ref="K108:K109"/>
-    <mergeCell ref="R50:R51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="F55:F97"/>
-    <mergeCell ref="K55:K57"/>
-    <mergeCell ref="O65:O70"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="K130:K131"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="B56:B68"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="I110:K110"/>
+    <mergeCell ref="O71:O89"/>
+    <mergeCell ref="I74:K74"/>
+    <mergeCell ref="F5:F11"/>
+    <mergeCell ref="O5:O49"/>
+    <mergeCell ref="F12:F33"/>
+    <mergeCell ref="F34:F54"/>
+    <mergeCell ref="O50:O64"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I12" r:id="rId1" location="chronology" display="Lunar Text No.3: Shamash-shum-ukin ruled for 20 years" xr:uid="{AC9984CE-8F77-46F9-BCB5-8FB9713A6A13}"/>
     <hyperlink ref="I11" r:id="rId2" location="shamash-shum-ukin" xr:uid="{D9BD3CF1-8870-4E49-9877-59A543E73070}"/>
     <hyperlink ref="I13" r:id="rId3" location="kandalanu" xr:uid="{51E1EB9D-06DE-4E4D-8D40-2609C880A2CA}"/>
-    <hyperlink ref="I34" r:id="rId4" xr:uid="{9D1E3D86-8804-4378-A94D-6FD8ACEEE2B4}"/>
+    <hyperlink ref="I34" r:id="rId4" location="key-information" xr:uid="{9D1E3D86-8804-4378-A94D-6FD8ACEEE2B4}"/>
     <hyperlink ref="I31" r:id="rId5" location="kandalanu" xr:uid="{96F6B632-08B0-4ADD-BBE3-073557BB37A8}"/>
     <hyperlink ref="I32" r:id="rId6" location="chronological-information" xr:uid="{918BD73D-CDDE-44DD-B466-22FD859D2A35}"/>
-    <hyperlink ref="I33" r:id="rId7" location="chronological-information" xr:uid="{6708C6C1-757A-4C65-B8A1-30175A2287FD}"/>
+    <hyperlink ref="I33" r:id="rId7" location="chronological-information" display="Uruk King list - 1 year for Sin-shumu-lisir and Sin-sharra-ishkun" xr:uid="{6708C6C1-757A-4C65-B8A1-30175A2287FD}"/>
     <hyperlink ref="I35" r:id="rId8" location="kandalanu" xr:uid="{D5798C38-6143-4579-B5C7-5C81F638F941}"/>
     <hyperlink ref="I38" r:id="rId9" location="nabopolassar" xr:uid="{472EDD34-56BD-4EFB-AC12-B330D75A6884}"/>
-    <hyperlink ref="I37" r:id="rId10" xr:uid="{5DE083AA-5605-4711-86EB-78A0C94A2F16}"/>
-    <hyperlink ref="I36" r:id="rId11" xr:uid="{2E4F543E-6F83-4C27-966A-F4E5EA143E19}"/>
+    <hyperlink ref="I37" r:id="rId10" location="key-information" xr:uid="{5DE083AA-5605-4711-86EB-78A0C94A2F16}"/>
+    <hyperlink ref="I36" r:id="rId11" location="key-information" xr:uid="{2E4F543E-6F83-4C27-966A-F4E5EA143E19}"/>
     <hyperlink ref="I50" r:id="rId12" location="key-information" xr:uid="{675F0EDA-5328-45CC-814B-88F9C85CF027}"/>
     <hyperlink ref="K104:K105" r:id="rId13" location="key-information" display="Hillah Stele - 54 years to Nabonidus Accession" xr:uid="{09F32583-F96F-4084-A537-0E10253C885C}"/>
-    <hyperlink ref="I51:K51" r:id="rId14" location="battle-at-megiddo" display="BM 21901 + 2 Ki 23:29  - Nabopolassar 17 - Necho is at Megiddo" xr:uid="{A2E76D1B-9067-4F80-A11D-C953222A6FBD}"/>
-    <hyperlink ref="I53" r:id="rId15" xr:uid="{D79FC263-AF99-426F-8B22-74EB54096C8E}"/>
-    <hyperlink ref="I57" r:id="rId16" xr:uid="{2FAF34D4-F186-40A2-A13C-4799EDAF8E71}"/>
-    <hyperlink ref="I55" r:id="rId17" location="chronological-information" xr:uid="{41376DC3-B2A4-4291-9847-A30A89E6488A}"/>
-    <hyperlink ref="I56" r:id="rId18" location="key-information" xr:uid="{CC39ED8C-1138-4F6E-9B94-038F710CDFC2}"/>
-    <hyperlink ref="I95" r:id="rId19" location="key-information" xr:uid="{BC14411F-20AF-4011-BDE6-494868E17327}"/>
-    <hyperlink ref="I100" r:id="rId20" location="key-information" xr:uid="{C54BDF7B-2B13-4688-8357-68B92A58B81E}"/>
-    <hyperlink ref="I105" r:id="rId21" location="key-information" xr:uid="{386462C2-EE2F-4933-A62F-AA618A90F6D3}"/>
-    <hyperlink ref="I94" r:id="rId22" location="chronological-information" xr:uid="{4974BF95-C39C-4ED2-BDA2-F21A9C3AF3F8}"/>
-    <hyperlink ref="I99" r:id="rId23" location="chronological-information" xr:uid="{2590D7D3-BA6D-45B7-94A7-E1E11D5B4902}"/>
-    <hyperlink ref="I104" r:id="rId24" location="chronological-information" xr:uid="{2A21ADB2-669F-43E5-ABB1-736F58851E6D}"/>
-    <hyperlink ref="I54" r:id="rId25" location="nabopolassar" xr:uid="{76665C54-3F5C-4F22-A3C2-16786E0D5A7B}"/>
-    <hyperlink ref="I58" r:id="rId26" location="nebuchadnezzar-ii" xr:uid="{A4EED34A-07A3-41F1-8DD5-3F6146D0DF90}"/>
-    <hyperlink ref="I93" r:id="rId27" location="nebuchadnezzar-ii" display="Last tablet for Nebuchadnezzar - VI/26/43" xr:uid="{9499A83B-0F25-4458-A41C-E39CC6C59E2F}"/>
-    <hyperlink ref="I96" r:id="rId28" location="amel-marduk" display="First tablet for Amel-Marduk - V/20/Acc" xr:uid="{49A6FEEA-6120-4A4C-9481-CA537EEF8F84}"/>
-    <hyperlink ref="K55:K57" r:id="rId29" location="battle-of-carchemish" display="BM 21946 + Jer 46:2 - Nabopolassar 21 - Necho is at Carchemish" xr:uid="{34F3BD62-10E2-4E5F-8E0D-29A4D57ABD31}"/>
-    <hyperlink ref="I74:K74" r:id="rId30" location="pharaoh-hophra" display="Jeremiah 44:30 - Pharaoh Hophra (Apries), king of Egypt" xr:uid="{8E25733F-7D69-41D7-8A87-90B8C4A7D1FB}"/>
-    <hyperlink ref="I98" r:id="rId31" location="amel-marduk" display="Last tablet for Amel-Marduk - V/17/2" xr:uid="{39837151-F450-4D3F-9B76-81687B97CE16}"/>
-    <hyperlink ref="I101" r:id="rId32" location="neriglissar" xr:uid="{491667E8-B7A5-4AC7-84F4-39569D6519CC}"/>
-    <hyperlink ref="I92:K92" r:id="rId33" display="BM 33041 - Nebuchadnezzar, 37th year, at war with Amasis" xr:uid="{7E1DD682-B92C-4508-83F3-5E6241112638}"/>
-    <hyperlink ref="I103" r:id="rId34" location="neriglissar" display="Last tablet for Neriglissar - I/6/4" xr:uid="{20885EC6-912A-4736-8550-B743C4D78577}"/>
-    <hyperlink ref="I106" r:id="rId35" location="labashi-marduk" display="First tablet of Labashi Marduk - I/23/Acc" xr:uid="{EEC6FF5E-FF90-40CF-AB48-37998CE27F95}"/>
-    <hyperlink ref="I108" r:id="rId36" location="labashi-marduk" display="Last tablet of Labashi Marduk - III/11/Acc" xr:uid="{66440266-628D-4508-9BF1-7750D0E058BE}"/>
-    <hyperlink ref="I109" r:id="rId37" location="nabonidus" xr:uid="{C9D3BDFD-7FE8-4A80-824F-BB8832E52EBB}"/>
-    <hyperlink ref="I110:K110" r:id="rId38" display="BM 35382 - Nabonidus 6th year - Cyrus defeats Astyages" xr:uid="{2232406E-9334-4EEE-94F5-5316C80D3292}"/>
-    <hyperlink ref="I120" r:id="rId39" location="key-information" display="BM 35382 - Babylon fell to Cyrus army 16/VII" xr:uid="{F8B573C6-913C-46A3-847B-2DB62FF1630A}"/>
-    <hyperlink ref="I122" r:id="rId40" location="key-information" display="BM 35382 - Cyrus enters Babylon VIII/3/17?" xr:uid="{BA872D14-5831-477C-B38C-30F5D59A0832}"/>
-    <hyperlink ref="I121" r:id="rId41" location="nabonidus" display="Last tablet of Nabonidus - VII/17/17" xr:uid="{212031C2-77ED-41ED-91F4-45C2F597945D}"/>
-    <hyperlink ref="I123" r:id="rId42" location="cyrus-ii" xr:uid="{93719A88-3DD8-4AF3-802A-A0025DA18E4D}"/>
-    <hyperlink ref="I130" r:id="rId43" location="cyrus-ii" xr:uid="{A5043B3B-31A6-4315-A04A-AAA365900689}"/>
-    <hyperlink ref="I131" r:id="rId44" location="cambyses-ii" xr:uid="{9A36B72C-6555-43E0-B929-C70827EE4D0D}"/>
-    <hyperlink ref="I135:K135" r:id="rId45" location="cambyses" display="Cambyses II conquers Egypt in his 5th year" xr:uid="{18861F7E-F837-4796-BF11-F6CE8F68138B}"/>
-    <hyperlink ref="R48" r:id="rId46" location="louvre-no-193" xr:uid="{30FAD99B-1752-4836-99AB-4C64E7DB11A7}"/>
-    <hyperlink ref="R65" r:id="rId47" location="louvre-no-193" xr:uid="{B1A61B29-C396-4BCA-8DE9-7C3A239C7AAA}"/>
-    <hyperlink ref="R66" r:id="rId48" location="louvre-no-240" xr:uid="{4881E2EE-E90E-40C3-803E-4E665DFDC086}"/>
-    <hyperlink ref="R82" r:id="rId49" location="louvre-no-240" xr:uid="{E8C4B369-F880-480F-B954-528484F8E905}"/>
-    <hyperlink ref="R50:R51" r:id="rId50" location="mortuary-stelae-of-the-priest-psamtik" display="Psammetichus born year 1" xr:uid="{E47D00EA-AE69-4A1B-BB1E-5AF0C3EF0C25}"/>
-    <hyperlink ref="R115:R116" r:id="rId51" location="mortuary-stelae-of-the-priest-psamtik" display="Psammetichus died year 27" xr:uid="{844CC1BA-3067-4DEB-B3D3-0D898F572F1B}"/>
-    <hyperlink ref="B8" r:id="rId52" display="https://github.com/jacob-pro/astro-tablets/blob/master/documents/bm32312.md" xr:uid="{4535A94B-3E8B-4010-9CA2-F3D4C37A3FAC}"/>
-    <hyperlink ref="B6" r:id="rId53" display="https://github.com/jacob-pro/astro-tablets/blob/master/documents/bm41222.md" xr:uid="{573559C4-195B-4750-80E9-0612B3B47880}"/>
-    <hyperlink ref="B9" r:id="rId54" display="https://github.com/jacob-pro/astro-tablets/blob/master/documents/bm41222.md" xr:uid="{FA6AC5E9-03CD-4B82-A5DA-EE2A63F9F7B2}"/>
-    <hyperlink ref="B13" r:id="rId55" display="https://github.com/jacob-pro/astro-tablets/blob/master/documents/bm41222.md" xr:uid="{55BFDC23-21BA-4F86-A27D-02E0E1D4E10F}"/>
-    <hyperlink ref="B24" r:id="rId56" display="https://github.com/jacob-pro/astro-tablets/blob/master/documents/bm41222.md" xr:uid="{061AC7F4-E4A2-4A21-AD06-2F152E7C5BB3}"/>
-    <hyperlink ref="B4" r:id="rId57" xr:uid="{C51C5A34-0BA2-4671-8FDD-88EA1C5CEE51}"/>
-    <hyperlink ref="B11" r:id="rId58" display="https://github.com/jacob-pro/astro-tablets/blob/master/documents/bm41222.md" xr:uid="{8CAFFFE2-AB0B-4D4A-B271-9879611D5994}"/>
-    <hyperlink ref="B28" r:id="rId59" display="https://github.com/jacob-pro/astro-tablets/blob/master/documents/bm41222.md" xr:uid="{3C853816-4C1E-4F8A-9875-CE5A36DA080C}"/>
-    <hyperlink ref="B41" r:id="rId60" display="https://github.com/jacob-pro/astro-tablets/blob/master/documents/bm41222.md" xr:uid="{10292ECB-A65B-4DFA-928A-2250930AEE81}"/>
-    <hyperlink ref="B46" r:id="rId61" display="https://github.com/jacob-pro/astro-tablets/blob/master/documents/bm41222.md" xr:uid="{FF44AFEF-AD6A-4A14-A3BE-BB21786252D3}"/>
-    <hyperlink ref="B47" r:id="rId62" display="https://github.com/jacob-pro/astro-tablets/blob/master/documents/bm41222.md" xr:uid="{805C48E3-B8D9-4341-B1F8-C57C4A2EAED2}"/>
-    <hyperlink ref="B14" r:id="rId63" display="https://github.com/jacob-pro/astro-tablets/blob/master/documents/bm76738_76813.md" xr:uid="{95C96FF5-90E8-4D09-B7E5-5B37F32E97E0}"/>
-    <hyperlink ref="B92" r:id="rId64" xr:uid="{D9FD24AB-C9B4-42DF-B888-12D70EC4AD6E}"/>
-    <hyperlink ref="B137:B138" r:id="rId65" display="BM 33066" xr:uid="{012CE28C-1849-4CA9-9388-46A207E7856D}"/>
-    <hyperlink ref="B10" r:id="rId66" xr:uid="{C5F13F32-7874-4A64-BAA1-F34C1DFB14A7}"/>
-    <hyperlink ref="B29" r:id="rId67" xr:uid="{E8CEA1F0-E59B-4D97-BC62-1484A6B1B4A4}"/>
-    <hyperlink ref="B51" r:id="rId68" xr:uid="{AF7157A2-B310-453E-8BF9-BFE77AD0E2AF}"/>
-    <hyperlink ref="B69" r:id="rId69" xr:uid="{A34454AF-7F32-4F07-B5CC-4BB0A6CE9A0C}"/>
-    <hyperlink ref="B87" r:id="rId70" xr:uid="{CBD820AD-F335-410D-9D25-BD9F2BCB2292}"/>
-    <hyperlink ref="B56" r:id="rId71" xr:uid="{F8557514-A6E5-4198-B81A-58963AC6DAA7}"/>
-    <hyperlink ref="V4" r:id="rId72" location="key-dates" xr:uid="{1D084AFE-545A-4486-97F2-669E35C17F9A}"/>
+    <hyperlink ref="I53" r:id="rId14" location="key-information" xr:uid="{D79FC263-AF99-426F-8B22-74EB54096C8E}"/>
+    <hyperlink ref="I57" r:id="rId15" location="key-information" xr:uid="{2FAF34D4-F186-40A2-A13C-4799EDAF8E71}"/>
+    <hyperlink ref="I55" r:id="rId16" location="chronological-information" xr:uid="{41376DC3-B2A4-4291-9847-A30A89E6488A}"/>
+    <hyperlink ref="I56" r:id="rId17" location="key-information" xr:uid="{CC39ED8C-1138-4F6E-9B94-038F710CDFC2}"/>
+    <hyperlink ref="I95" r:id="rId18" location="key-information" xr:uid="{BC14411F-20AF-4011-BDE6-494868E17327}"/>
+    <hyperlink ref="I100" r:id="rId19" location="key-information" xr:uid="{C54BDF7B-2B13-4688-8357-68B92A58B81E}"/>
+    <hyperlink ref="I105" r:id="rId20" location="key-information" xr:uid="{386462C2-EE2F-4933-A62F-AA618A90F6D3}"/>
+    <hyperlink ref="I94" r:id="rId21" location="chronological-information" xr:uid="{4974BF95-C39C-4ED2-BDA2-F21A9C3AF3F8}"/>
+    <hyperlink ref="I99" r:id="rId22" location="chronological-information" xr:uid="{2590D7D3-BA6D-45B7-94A7-E1E11D5B4902}"/>
+    <hyperlink ref="I104" r:id="rId23" location="chronological-information" xr:uid="{2A21ADB2-669F-43E5-ABB1-736F58851E6D}"/>
+    <hyperlink ref="I54" r:id="rId24" location="nabopolassar" xr:uid="{76665C54-3F5C-4F22-A3C2-16786E0D5A7B}"/>
+    <hyperlink ref="I58" r:id="rId25" location="nebuchadnezzar-ii" xr:uid="{A4EED34A-07A3-41F1-8DD5-3F6146D0DF90}"/>
+    <hyperlink ref="I93" r:id="rId26" location="nebuchadnezzar-ii" xr:uid="{9499A83B-0F25-4458-A41C-E39CC6C59E2F}"/>
+    <hyperlink ref="I96" r:id="rId27" location="amel-marduk" xr:uid="{49A6FEEA-6120-4A4C-9481-CA537EEF8F84}"/>
+    <hyperlink ref="K55:K57" r:id="rId28" location="battle-of-carchemish" display="BM 21946 + Jer 46:2 - Nabopolassar 21 - Necho is at Carchemish" xr:uid="{34F3BD62-10E2-4E5F-8E0D-29A4D57ABD31}"/>
+    <hyperlink ref="I74:K74" r:id="rId29" location="pharaoh-hophra" display="Jeremiah 44:30 - Pharaoh Hophra (Apries) is king of Egypt" xr:uid="{8E25733F-7D69-41D7-8A87-90B8C4A7D1FB}"/>
+    <hyperlink ref="I98" r:id="rId30" location="amel-marduk" xr:uid="{39837151-F450-4D3F-9B76-81687B97CE16}"/>
+    <hyperlink ref="I101" r:id="rId31" location="neriglissar" xr:uid="{491667E8-B7A5-4AC7-84F4-39569D6519CC}"/>
+    <hyperlink ref="I92:K92" r:id="rId32" display="BM 33041 - Nebuchadnezzar, 37th year, at war with Amasis" xr:uid="{7E1DD682-B92C-4508-83F3-5E6241112638}"/>
+    <hyperlink ref="I103" r:id="rId33" location="neriglissar" xr:uid="{20885EC6-912A-4736-8550-B743C4D78577}"/>
+    <hyperlink ref="I106" r:id="rId34" location="labashi-marduk" xr:uid="{EEC6FF5E-FF90-40CF-AB48-37998CE27F95}"/>
+    <hyperlink ref="I108" r:id="rId35" location="labashi-marduk" xr:uid="{66440266-628D-4508-9BF1-7750D0E058BE}"/>
+    <hyperlink ref="I109" r:id="rId36" location="nabonidus" xr:uid="{C9D3BDFD-7FE8-4A80-824F-BB8832E52EBB}"/>
+    <hyperlink ref="I110:K110" r:id="rId37" location="key-information" display="BM 35382 - Nabonidus ~6th year - Cyrus defeats Astyages" xr:uid="{2232406E-9334-4EEE-94F5-5316C80D3292}"/>
+    <hyperlink ref="I120" r:id="rId38" xr:uid="{F8B573C6-913C-46A3-847B-2DB62FF1630A}"/>
+    <hyperlink ref="I122" r:id="rId39" xr:uid="{BA872D14-5831-477C-B38C-30F5D59A0832}"/>
+    <hyperlink ref="I121" r:id="rId40" location="nabonidus" xr:uid="{212031C2-77ED-41ED-91F4-45C2F597945D}"/>
+    <hyperlink ref="I123" r:id="rId41" location="cyrus-ii" xr:uid="{93719A88-3DD8-4AF3-802A-A0025DA18E4D}"/>
+    <hyperlink ref="I130" r:id="rId42" location="cyrus-ii" xr:uid="{A5043B3B-31A6-4315-A04A-AAA365900689}"/>
+    <hyperlink ref="I131" r:id="rId43" location="cambyses-ii" xr:uid="{9A36B72C-6555-43E0-B929-C70827EE4D0D}"/>
+    <hyperlink ref="I135:K135" r:id="rId44" location="cambyses" display="Cambyses II conquers Egypt in his 5th year" xr:uid="{18861F7E-F837-4796-BF11-F6CE8F68138B}"/>
+    <hyperlink ref="R48" r:id="rId45" location="louvre-no-193" xr:uid="{30FAD99B-1752-4836-99AB-4C64E7DB11A7}"/>
+    <hyperlink ref="R65" r:id="rId46" location="louvre-no-193" xr:uid="{B1A61B29-C396-4BCA-8DE9-7C3A239C7AAA}"/>
+    <hyperlink ref="R66" r:id="rId47" location="louvre-no-240" xr:uid="{4881E2EE-E90E-40C3-803E-4E665DFDC086}"/>
+    <hyperlink ref="R82" r:id="rId48" location="louvre-no-240" xr:uid="{E8C4B369-F880-480F-B954-528484F8E905}"/>
+    <hyperlink ref="R50:R51" r:id="rId49" location="mortuary-stelae-of-the-priest-psamtik" display="Psammetichus born year 1" xr:uid="{E47D00EA-AE69-4A1B-BB1E-5AF0C3EF0C25}"/>
+    <hyperlink ref="R115:R116" r:id="rId50" location="mortuary-stelae-of-the-priest-psamtik" display="Psammetichus died year 27" xr:uid="{844CC1BA-3067-4DEB-B3D3-0D898F572F1B}"/>
+    <hyperlink ref="B8" r:id="rId51" display="https://github.com/jacob-pro/astro-tablets/blob/master/documents/bm32312.md" xr:uid="{4535A94B-3E8B-4010-9CA2-F3D4C37A3FAC}"/>
+    <hyperlink ref="B6" r:id="rId52" display="https://github.com/jacob-pro/astro-tablets/blob/master/documents/bm41222.md" xr:uid="{573559C4-195B-4750-80E9-0612B3B47880}"/>
+    <hyperlink ref="B9" r:id="rId53" display="https://github.com/jacob-pro/astro-tablets/blob/master/documents/bm41222.md" xr:uid="{FA6AC5E9-03CD-4B82-A5DA-EE2A63F9F7B2}"/>
+    <hyperlink ref="B13" r:id="rId54" display="https://github.com/jacob-pro/astro-tablets/blob/master/documents/bm41222.md" xr:uid="{55BFDC23-21BA-4F86-A27D-02E0E1D4E10F}"/>
+    <hyperlink ref="B24" r:id="rId55" display="https://github.com/jacob-pro/astro-tablets/blob/master/documents/bm41222.md" xr:uid="{061AC7F4-E4A2-4A21-AD06-2F152E7C5BB3}"/>
+    <hyperlink ref="B4" r:id="rId56" xr:uid="{C51C5A34-0BA2-4671-8FDD-88EA1C5CEE51}"/>
+    <hyperlink ref="B11" r:id="rId57" display="https://github.com/jacob-pro/astro-tablets/blob/master/documents/bm41222.md" xr:uid="{8CAFFFE2-AB0B-4D4A-B271-9879611D5994}"/>
+    <hyperlink ref="B28" r:id="rId58" display="https://github.com/jacob-pro/astro-tablets/blob/master/documents/bm41222.md" xr:uid="{3C853816-4C1E-4F8A-9875-CE5A36DA080C}"/>
+    <hyperlink ref="B41" r:id="rId59" display="https://github.com/jacob-pro/astro-tablets/blob/master/documents/bm41222.md" xr:uid="{10292ECB-A65B-4DFA-928A-2250930AEE81}"/>
+    <hyperlink ref="B46" r:id="rId60" display="https://github.com/jacob-pro/astro-tablets/blob/master/documents/bm41222.md" xr:uid="{FF44AFEF-AD6A-4A14-A3BE-BB21786252D3}"/>
+    <hyperlink ref="B47" r:id="rId61" display="https://github.com/jacob-pro/astro-tablets/blob/master/documents/bm41222.md" xr:uid="{805C48E3-B8D9-4341-B1F8-C57C4A2EAED2}"/>
+    <hyperlink ref="B14" r:id="rId62" display="https://github.com/jacob-pro/astro-tablets/blob/master/documents/bm76738_76813.md" xr:uid="{95C96FF5-90E8-4D09-B7E5-5B37F32E97E0}"/>
+    <hyperlink ref="B92" r:id="rId63" xr:uid="{D9FD24AB-C9B4-42DF-B888-12D70EC4AD6E}"/>
+    <hyperlink ref="B137:B138" r:id="rId64" display="BM 33066" xr:uid="{012CE28C-1849-4CA9-9388-46A207E7856D}"/>
+    <hyperlink ref="B10" r:id="rId65" xr:uid="{C5F13F32-7874-4A64-BAA1-F34C1DFB14A7}"/>
+    <hyperlink ref="B29" r:id="rId66" xr:uid="{E8CEA1F0-E59B-4D97-BC62-1484A6B1B4A4}"/>
+    <hyperlink ref="B51" r:id="rId67" xr:uid="{AF7157A2-B310-453E-8BF9-BFE77AD0E2AF}"/>
+    <hyperlink ref="B69" r:id="rId68" xr:uid="{A34454AF-7F32-4F07-B5CC-4BB0A6CE9A0C}"/>
+    <hyperlink ref="B87" r:id="rId69" xr:uid="{CBD820AD-F335-410D-9D25-BD9F2BCB2292}"/>
+    <hyperlink ref="B56" r:id="rId70" xr:uid="{F8557514-A6E5-4198-B81A-58963AC6DAA7}"/>
+    <hyperlink ref="V4" r:id="rId71" location="key-dates" xr:uid="{1D084AFE-545A-4486-97F2-669E35C17F9A}"/>
+    <hyperlink ref="I51:K51" r:id="rId72" location="battle-at-megiddo" display="BM 21901 + 2 Ki 23:29  - Nabopolassar 17 - Necho is at Megiddo" xr:uid="{A2E76D1B-9067-4F80-A11D-C953222A6FBD}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="8" scale="59" orientation="portrait" r:id="rId73"/>
